--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3044989.58096887</v>
+        <v>3047613.087638532</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2172981.279596495</v>
+        <v>2172981.279596497</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>875693.9294635196</v>
+        <v>875693.9294635195</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>44.13217237922859</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F3" t="n">
-        <v>38.12502610536668</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -913,13 +913,13 @@
         <v>44.13217237922859</v>
       </c>
       <c r="H5" t="n">
-        <v>16.93162886246721</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>44.13217237922859</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="H6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>19.93169026592149</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>38.88501798484931</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1217,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>44.13217237922859</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="T9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="J10" t="n">
-        <v>42.20118209180435</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>312.5792188853895</v>
       </c>
       <c r="C11" t="n">
-        <v>295.118268992917</v>
+        <v>295.1182689929165</v>
       </c>
       <c r="D11" t="n">
         <v>284.5284188425919</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>81.82692210263181</v>
+        <v>81.82692210263187</v>
       </c>
       <c r="T11" t="n">
         <v>141.9840730000425</v>
       </c>
       <c r="U11" t="n">
-        <v>180.9907851719203</v>
+        <v>180.9907851719202</v>
       </c>
       <c r="V11" t="n">
         <v>257.5976356920439</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109.6773574038462</v>
+        <v>109.6773574038463</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.09219832053681</v>
       </c>
       <c r="D13" t="n">
-        <v>78.4608502401213</v>
+        <v>78.46085024012133</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>76.27933986847815</v>
       </c>
       <c r="F13" t="n">
-        <v>75.26642524484019</v>
+        <v>75.26642524484022</v>
       </c>
       <c r="G13" t="n">
-        <v>96.71356915034883</v>
+        <v>96.71356915034886</v>
       </c>
       <c r="H13" t="n">
-        <v>82.08994876063528</v>
+        <v>82.08994876063531</v>
       </c>
       <c r="I13" t="n">
-        <v>51.53057198096333</v>
+        <v>51.53057198096336</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>56.65416288204811</v>
       </c>
       <c r="S13" t="n">
         <v>134.2948525011887</v>
@@ -1584,13 +1584,13 @@
         <v>152.9936021764734</v>
       </c>
       <c r="U13" t="n">
-        <v>216.1031636276715</v>
+        <v>76.73213353739592</v>
       </c>
       <c r="V13" t="n">
         <v>181.983020545737</v>
       </c>
       <c r="W13" t="n">
-        <v>90.65467098078757</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>155.5550326109461</v>
@@ -1621,13 +1621,13 @@
         <v>336.7214229636204</v>
       </c>
       <c r="G14" t="n">
-        <v>342.6450527642287</v>
+        <v>342.645052764229</v>
       </c>
       <c r="H14" t="n">
         <v>243.6856959085842</v>
       </c>
       <c r="I14" t="n">
-        <v>43.82197008536349</v>
+        <v>43.82197008536393</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>81.82692210263183</v>
+        <v>81.82692210263185</v>
       </c>
       <c r="T14" t="n">
         <v>141.9840730000425</v>
       </c>
       <c r="U14" t="n">
-        <v>180.9907851719215</v>
+        <v>180.9907851719203</v>
       </c>
       <c r="V14" t="n">
         <v>257.5976356920439</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>109.6773574038463</v>
       </c>
       <c r="C16" t="n">
-        <v>97.09219832053678</v>
+        <v>97.09219832053681</v>
       </c>
       <c r="D16" t="n">
-        <v>78.4608502401213</v>
+        <v>78.46085024012133</v>
       </c>
       <c r="E16" t="n">
-        <v>76.27933986847812</v>
+        <v>76.27933986847815</v>
       </c>
       <c r="F16" t="n">
-        <v>75.26642524484019</v>
+        <v>75.26642524484022</v>
       </c>
       <c r="G16" t="n">
-        <v>96.71356915034883</v>
+        <v>96.71356915034886</v>
       </c>
       <c r="H16" t="n">
-        <v>82.08994876063528</v>
+        <v>82.08994876063531</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>51.53057198096336</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>56.65416288204811</v>
       </c>
       <c r="S16" t="n">
         <v>134.2948525011887</v>
@@ -1821,16 +1821,16 @@
         <v>152.9936021764734</v>
       </c>
       <c r="U16" t="n">
-        <v>78.22585024575378</v>
+        <v>216.1031636276715</v>
       </c>
       <c r="V16" t="n">
         <v>181.983020545737</v>
       </c>
       <c r="W16" t="n">
-        <v>216.3683755585</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>155.5550326109461</v>
+        <v>16.18400252067034</v>
       </c>
       <c r="Y16" t="n">
         <v>148.4300305740038</v>
@@ -1861,7 +1861,7 @@
         <v>342.645052764229</v>
       </c>
       <c r="H17" t="n">
-        <v>243.6856959085842</v>
+        <v>243.6856959085847</v>
       </c>
       <c r="I17" t="n">
         <v>43.8219700853635</v>
@@ -1900,7 +1900,7 @@
         <v>141.9840730000425</v>
       </c>
       <c r="U17" t="n">
-        <v>180.9907851719206</v>
+        <v>180.9907851719203</v>
       </c>
       <c r="V17" t="n">
         <v>257.5976356920439</v>
@@ -2004,22 +2004,22 @@
         <v>109.6773574038463</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>97.0921983205368</v>
       </c>
       <c r="D19" t="n">
-        <v>28.70058889832184</v>
+        <v>78.46085024012132</v>
       </c>
       <c r="E19" t="n">
-        <v>76.27933986847813</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>75.26642524484021</v>
       </c>
       <c r="G19" t="n">
-        <v>96.71356915034885</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>82.08994876063528</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>216.3683755585</v>
       </c>
       <c r="X19" t="n">
-        <v>155.5550326109461</v>
+        <v>24.33910796196138</v>
       </c>
       <c r="Y19" t="n">
         <v>148.4300305740038</v>
@@ -2137,13 +2137,13 @@
         <v>141.9840730000425</v>
       </c>
       <c r="U20" t="n">
-        <v>180.9907851719203</v>
+        <v>180.9907851719206</v>
       </c>
       <c r="V20" t="n">
         <v>257.5976356920439</v>
       </c>
       <c r="W20" t="n">
-        <v>279.0863459393226</v>
+        <v>279.086345939322</v>
       </c>
       <c r="X20" t="n">
         <v>299.576477900378</v>
@@ -2244,22 +2244,22 @@
         <v>97.0921983205368</v>
       </c>
       <c r="D22" t="n">
-        <v>78.46085024012132</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>75.26642524484021</v>
       </c>
       <c r="G22" t="n">
         <v>96.71356915034885</v>
       </c>
       <c r="H22" t="n">
-        <v>77.8569107801456</v>
+        <v>82.08994876063528</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>51.53057198096334</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>56.65416288204809</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>134.2948525011887</v>
@@ -2307,7 +2307,7 @@
         <v>155.5550326109461</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>4.08497791587593</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>312.5792188853896</v>
+        <v>312.5792188853895</v>
       </c>
       <c r="C23" t="n">
-        <v>295.1182689929166</v>
+        <v>295.1182689929165</v>
       </c>
       <c r="D23" t="n">
-        <v>284.528418842592</v>
+        <v>284.5284188425924</v>
       </c>
       <c r="E23" t="n">
-        <v>311.7757472941708</v>
+        <v>311.7757472941707</v>
       </c>
       <c r="F23" t="n">
-        <v>336.7214229636205</v>
+        <v>336.7214229636204</v>
       </c>
       <c r="G23" t="n">
         <v>342.645052764229</v>
       </c>
       <c r="H23" t="n">
-        <v>243.6856959085843</v>
+        <v>243.6856959085842</v>
       </c>
       <c r="I23" t="n">
-        <v>43.82197008536355</v>
+        <v>43.8219700853635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>81.8269221026321</v>
+        <v>81.82692210263184</v>
       </c>
       <c r="T23" t="n">
-        <v>141.9840730000426</v>
+        <v>141.9840730000425</v>
       </c>
       <c r="U23" t="n">
-        <v>180.9907851719211</v>
+        <v>180.9907851719203</v>
       </c>
       <c r="V23" t="n">
         <v>257.5976356920439</v>
@@ -2383,10 +2383,10 @@
         <v>279.086345939322</v>
       </c>
       <c r="X23" t="n">
-        <v>299.5764779003781</v>
+        <v>299.576477900378</v>
       </c>
       <c r="Y23" t="n">
-        <v>316.0833158779626</v>
+        <v>316.0833158779625</v>
       </c>
     </row>
     <row r="24">
@@ -2478,25 +2478,25 @@
         <v>109.6773574038463</v>
       </c>
       <c r="C25" t="n">
-        <v>97.09219832053684</v>
+        <v>97.0921983205368</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>78.46085024012132</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>76.27933986847813</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.577570911667477</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>96.71356915034885</v>
       </c>
       <c r="H25" t="n">
-        <v>82.08994876063534</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>51.53057198096339</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>56.65416288204813</v>
+        <v>56.65416288204809</v>
       </c>
       <c r="S25" t="n">
-        <v>134.2948525011888</v>
+        <v>134.2948525011887</v>
       </c>
       <c r="T25" t="n">
-        <v>123.9743810314859</v>
+        <v>152.9936021764734</v>
       </c>
       <c r="U25" t="n">
-        <v>216.1031636276716</v>
+        <v>216.1031636276715</v>
       </c>
       <c r="V25" t="n">
         <v>181.983020545737</v>
@@ -2541,10 +2541,10 @@
         <v>216.3683755585</v>
       </c>
       <c r="X25" t="n">
-        <v>155.5550326109462</v>
+        <v>155.5550326109461</v>
       </c>
       <c r="Y25" t="n">
-        <v>148.4300305740038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>243.6856959085843</v>
       </c>
       <c r="I26" t="n">
-        <v>43.82197008536355</v>
+        <v>43.82197008536356</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>81.82692210263188</v>
+        <v>81.8269221026319</v>
       </c>
       <c r="T26" t="n">
-        <v>141.9840730000425</v>
+        <v>141.9840730000426</v>
       </c>
       <c r="U26" t="n">
         <v>180.9907851719203</v>
@@ -2715,19 +2715,19 @@
         <v>109.6773574038463</v>
       </c>
       <c r="C28" t="n">
-        <v>97.09219832053684</v>
+        <v>97.09219832053685</v>
       </c>
       <c r="D28" t="n">
-        <v>4.771995906947443</v>
+        <v>78.46085024012137</v>
       </c>
       <c r="E28" t="n">
-        <v>76.27933986847817</v>
+        <v>76.27933986847819</v>
       </c>
       <c r="F28" t="n">
-        <v>75.26642524484025</v>
+        <v>75.26642524484026</v>
       </c>
       <c r="G28" t="n">
-        <v>96.71356915034889</v>
+        <v>96.7135691503489</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>56.65416288204813</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>134.2948525011888</v>
@@ -2772,7 +2772,7 @@
         <v>216.1031636276716</v>
       </c>
       <c r="V28" t="n">
-        <v>181.983020545737</v>
+        <v>16.51829852060747</v>
       </c>
       <c r="W28" t="n">
         <v>216.3683755585</v>
@@ -2781,7 +2781,7 @@
         <v>155.5550326109462</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>148.4300305740038</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>243.6856959085843</v>
       </c>
       <c r="I29" t="n">
-        <v>43.82197008536355</v>
+        <v>43.82197008536318</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>81.8269221026321</v>
+        <v>81.82692210263187</v>
       </c>
       <c r="T29" t="n">
         <v>141.9840730000426</v>
@@ -2952,7 +2952,7 @@
         <v>109.6773574038463</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>97.09219832053684</v>
       </c>
       <c r="D31" t="n">
         <v>78.46085024012136</v>
@@ -2961,13 +2961,13 @@
         <v>76.27933986847817</v>
       </c>
       <c r="F31" t="n">
-        <v>46.95330780854824</v>
+        <v>75.26642524484025</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>82.08994876063534</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>56.65416288204813</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>134.2948525011888</v>
@@ -3006,7 +3006,7 @@
         <v>152.9936021764735</v>
       </c>
       <c r="U31" t="n">
-        <v>216.1031636276716</v>
+        <v>65.26206199225554</v>
       </c>
       <c r="V31" t="n">
         <v>181.983020545737</v>
@@ -3049,7 +3049,7 @@
         <v>243.6856959085843</v>
       </c>
       <c r="I32" t="n">
-        <v>43.82197008536291</v>
+        <v>43.82197008536356</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>141.9840730000426</v>
       </c>
       <c r="U32" t="n">
-        <v>180.9907851719206</v>
+        <v>180.9907851719202</v>
       </c>
       <c r="V32" t="n">
         <v>257.5976356920439</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>109.6773574038463</v>
       </c>
       <c r="C34" t="n">
-        <v>97.09219832053687</v>
+        <v>97.09219832053685</v>
       </c>
       <c r="D34" t="n">
-        <v>78.46085024012139</v>
+        <v>78.46085024012137</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>76.27933986847819</v>
       </c>
       <c r="F34" t="n">
-        <v>75.26642524484028</v>
+        <v>75.26642524484026</v>
       </c>
       <c r="G34" t="n">
-        <v>65.67497241658026</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>51.53057198096342</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>155.5550326109462</v>
       </c>
       <c r="Y34" t="n">
-        <v>148.4300305740038</v>
+        <v>79.67887769922295</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>81.8269221026319</v>
+        <v>81.82692210263164</v>
       </c>
       <c r="T35" t="n">
         <v>141.9840730000426</v>
@@ -3444,7 +3444,7 @@
         <v>82.08994876063534</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>51.5305719809634</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>152.9936021764735</v>
       </c>
       <c r="U37" t="n">
-        <v>141.9009453132983</v>
+        <v>216.1031636276716</v>
       </c>
       <c r="V37" t="n">
         <v>181.983020545737</v>
       </c>
       <c r="W37" t="n">
-        <v>216.3683755585</v>
+        <v>90.63558526316332</v>
       </c>
       <c r="X37" t="n">
         <v>155.5550326109462</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>312.5792188853895</v>
+        <v>312.5792188853896</v>
       </c>
       <c r="C38" t="n">
-        <v>295.1182689929165</v>
+        <v>295.1182689929166</v>
       </c>
       <c r="D38" t="n">
-        <v>284.5284188425919</v>
+        <v>284.528418842592</v>
       </c>
       <c r="E38" t="n">
-        <v>311.7757472941707</v>
+        <v>311.7757472941708</v>
       </c>
       <c r="F38" t="n">
-        <v>336.7214229636204</v>
+        <v>336.7214229636209</v>
       </c>
       <c r="G38" t="n">
         <v>342.645052764229</v>
       </c>
       <c r="H38" t="n">
-        <v>243.6856959085842</v>
+        <v>243.6856959085843</v>
       </c>
       <c r="I38" t="n">
-        <v>43.8219700853635</v>
+        <v>43.82197008536356</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>81.82692210263187</v>
+        <v>81.8269221026319</v>
       </c>
       <c r="T38" t="n">
-        <v>141.9840730000425</v>
+        <v>141.9840730000426</v>
       </c>
       <c r="U38" t="n">
         <v>180.9907851719203</v>
       </c>
       <c r="V38" t="n">
-        <v>257.5976356920449</v>
+        <v>257.5976356920439</v>
       </c>
       <c r="W38" t="n">
         <v>279.086345939322</v>
       </c>
       <c r="X38" t="n">
-        <v>299.576477900378</v>
+        <v>299.5764779003781</v>
       </c>
       <c r="Y38" t="n">
-        <v>316.0833158779625</v>
+        <v>316.0833158779626</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>81.03676542904711</v>
+        <v>109.6773574038463</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>97.09219832053685</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>78.46085024012137</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>76.27933986847819</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>96.71356915034886</v>
+        <v>96.7135691503489</v>
       </c>
       <c r="H40" t="n">
-        <v>82.08994876063531</v>
+        <v>82.08994876063534</v>
       </c>
       <c r="I40" t="n">
-        <v>51.53057198096336</v>
+        <v>51.5305719809634</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>56.65416288204811</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>134.2948525011887</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>152.9936021764734</v>
+        <v>152.9936021764735</v>
       </c>
       <c r="U40" t="n">
-        <v>216.1031636276715</v>
+        <v>216.1031636276716</v>
       </c>
       <c r="V40" t="n">
-        <v>181.983020545737</v>
+        <v>92.4590555250376</v>
       </c>
       <c r="W40" t="n">
         <v>216.3683755585</v>
       </c>
       <c r="X40" t="n">
-        <v>155.5550326109461</v>
+        <v>155.5550326109462</v>
       </c>
       <c r="Y40" t="n">
         <v>148.4300305740038</v>
@@ -3745,10 +3745,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>151.9815448807229</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>129.7015021890428</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1454079500113</v>
       </c>
       <c r="V41" t="n">
-        <v>234.6239834626319</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>89.75706452311549</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.8681919284399</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>121.6851947590544</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>126.8087856601391</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>223.1482249545645</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2577864057626</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>155.8350445721073</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>289.5863011664986</v>
+        <v>412.79967554232</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>313.8403186866752</v>
       </c>
       <c r="I44" t="n">
-        <v>113.9765928634545</v>
+        <v>4.67515827109282</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>127.5933288956534</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.8681919284399</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>152.2445715387263</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4.151211930439285</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>204.4494752792797</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.1482249545645</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.4370741486873</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C2" t="n">
-        <v>166.4370741486873</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D2" t="n">
-        <v>121.8591222504766</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="E2" t="n">
         <v>77.28117035226589</v>
@@ -4336,16 +4336,16 @@
         <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M2" t="n">
-        <v>45.45613755060546</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N2" t="n">
-        <v>89.14698820604177</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P2" t="n">
         <v>176.5286895169144</v>
@@ -4354,28 +4354,28 @@
         <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>166.4370741486873</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S2" t="n">
-        <v>166.4370741486873</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T2" t="n">
-        <v>166.4370741486873</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U2" t="n">
-        <v>166.4370741486873</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V2" t="n">
-        <v>166.4370741486873</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W2" t="n">
-        <v>166.4370741486873</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="X2" t="n">
-        <v>166.4370741486873</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y2" t="n">
-        <v>166.4370741486873</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.9507376187037</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C3" t="n">
-        <v>131.9507376187037</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D3" t="n">
-        <v>131.9507376187037</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E3" t="n">
         <v>131.9507376187037</v>
       </c>
       <c r="F3" t="n">
-        <v>93.44061023954541</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G3" t="n">
-        <v>48.8626583413347</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H3" t="n">
-        <v>4.284706443124001</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I3" t="n">
         <v>4.284706443124001</v>
@@ -4412,19 +4412,19 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>90.91227510121089</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M3" t="n">
-        <v>90.91227510121089</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N3" t="n">
-        <v>90.91227510121089</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O3" t="n">
-        <v>90.91227510121089</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
         <v>132.8378388614781</v>
@@ -4433,28 +4433,28 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>131.9507376187037</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>131.9507376187037</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>131.9507376187037</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>131.9507376187037</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V3" t="n">
-        <v>131.9507376187037</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W3" t="n">
-        <v>131.9507376187037</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X3" t="n">
-        <v>131.9507376187037</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y3" t="n">
-        <v>131.9507376187037</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="J4" t="n">
         <v>3.530573790338288</v>
@@ -4515,25 +4515,25 @@
         <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>137.2644294849704</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>92.68647758675968</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>48.10852568854899</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V4" t="n">
-        <v>3.530573790338288</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W4" t="n">
-        <v>3.530573790338288</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X4" t="n">
-        <v>3.530573790338288</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.530573790338288</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="5">
@@ -4546,43 +4546,43 @@
         <v>121.8591222504766</v>
       </c>
       <c r="C5" t="n">
-        <v>121.8591222504766</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D5" t="n">
-        <v>121.8591222504766</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E5" t="n">
-        <v>121.8591222504766</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F5" t="n">
-        <v>77.28117035226589</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G5" t="n">
-        <v>32.70321845405519</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>15.60056303742164</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>15.60056303742164</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
         <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>3.530573790338288</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M5" t="n">
-        <v>47.22142444577459</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N5" t="n">
-        <v>90.91227510121089</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O5" t="n">
-        <v>134.6031257566472</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
         <v>176.5286895169144</v>
@@ -4591,28 +4591,28 @@
         <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>166.4370741486873</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S5" t="n">
-        <v>166.4370741486873</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T5" t="n">
-        <v>166.4370741486873</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U5" t="n">
-        <v>166.4370741486873</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V5" t="n">
-        <v>166.4370741486873</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W5" t="n">
-        <v>166.4370741486873</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X5" t="n">
-        <v>166.4370741486873</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y5" t="n">
-        <v>166.4370741486873</v>
+        <v>121.8591222504766</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C6" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D6" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E6" t="n">
-        <v>138.0185621377561</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F6" t="n">
-        <v>138.0185621377561</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G6" t="n">
-        <v>93.44061023954541</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H6" t="n">
-        <v>48.8626583413347</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I6" t="n">
         <v>4.284706443124001</v>
@@ -4649,13 +4649,13 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>45.45613755060546</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
+        <v>47.22142444577459</v>
+      </c>
+      <c r="M6" t="n">
         <v>89.14698820604177</v>
-      </c>
-      <c r="M6" t="n">
-        <v>132.8378388614781</v>
       </c>
       <c r="N6" t="n">
         <v>132.8378388614781</v>
@@ -4670,28 +4670,28 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X6" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.02500997809875</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="C7" t="n">
-        <v>26.02500997809875</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="D7" t="n">
-        <v>26.02500997809875</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="E7" t="n">
-        <v>26.02500997809875</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="F7" t="n">
         <v>26.02500997809875</v>
@@ -4743,34 +4743,34 @@
         <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="S7" t="n">
-        <v>138.062864280609</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="T7" t="n">
-        <v>115.1809137745201</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="U7" t="n">
-        <v>115.1809137745201</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="V7" t="n">
-        <v>115.1809137745201</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="W7" t="n">
-        <v>115.1809137745201</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="X7" t="n">
         <v>70.60296187630945</v>
       </c>
       <c r="Y7" t="n">
-        <v>26.02500997809875</v>
+        <v>70.60296187630945</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38.00337440797365</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C8" t="n">
-        <v>38.00337440797365</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D8" t="n">
-        <v>38.00337440797365</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E8" t="n">
-        <v>38.00337440797365</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F8" t="n">
-        <v>31.05787365877018</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G8" t="n">
-        <v>15.60056303742164</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H8" t="n">
-        <v>15.60056303742164</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>15.60056303742164</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
         <v>3.530573790338288</v>
@@ -4810,13 +4810,13 @@
         <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>45.45613755060546</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M8" t="n">
-        <v>89.14698820604177</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O8" t="n">
         <v>176.5286895169144</v>
@@ -4825,31 +4825,31 @@
         <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>121.8591222504766</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S8" t="n">
-        <v>77.28117035226589</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T8" t="n">
-        <v>77.28117035226589</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U8" t="n">
-        <v>77.28117035226589</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V8" t="n">
-        <v>77.28117035226589</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W8" t="n">
-        <v>77.28117035226589</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X8" t="n">
-        <v>38.00337440797365</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y8" t="n">
-        <v>38.00337440797365</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.284706443124001</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="C9" t="n">
-        <v>4.284706443124001</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="D9" t="n">
-        <v>4.284706443124001</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="E9" t="n">
-        <v>4.284706443124001</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="F9" t="n">
         <v>4.284706443124001</v>
@@ -4886,49 +4886,49 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>47.22142444577459</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>47.22142444577459</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M9" t="n">
-        <v>47.22142444577459</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N9" t="n">
-        <v>47.22142444577459</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O9" t="n">
-        <v>89.14698820604177</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>131.9507376187037</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>87.37278572049297</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="T9" t="n">
-        <v>42.79483382228227</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="U9" t="n">
-        <v>4.284706443124001</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="V9" t="n">
-        <v>4.284706443124001</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="W9" t="n">
-        <v>4.284706443124001</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="X9" t="n">
-        <v>4.284706443124001</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.284706443124001</v>
+        <v>138.0185621377561</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C10" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D10" t="n">
-        <v>46.15803044872652</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E10" t="n">
-        <v>46.15803044872652</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="F10" t="n">
-        <v>46.15803044872652</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="G10" t="n">
-        <v>46.15803044872652</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="H10" t="n">
-        <v>46.15803044872652</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="I10" t="n">
-        <v>46.15803044872652</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="J10" t="n">
         <v>3.530573790338288</v>
@@ -4980,34 +4980,34 @@
         <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3139342451479</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>135.3139342451479</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>135.3139342451479</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1953.917823482654</v>
+        <v>1953.917823482653</v>
       </c>
       <c r="C11" t="n">
         <v>1655.818561873647</v>
@@ -5068,19 +5068,19 @@
         <v>3842.528706886382</v>
       </c>
       <c r="S11" t="n">
-        <v>3759.875250217057</v>
+        <v>3759.875250217056</v>
       </c>
       <c r="T11" t="n">
         <v>3616.456994661458</v>
       </c>
       <c r="U11" t="n">
-        <v>3433.638019740327</v>
+        <v>3433.638019740326</v>
       </c>
       <c r="V11" t="n">
         <v>3173.438387728161</v>
       </c>
       <c r="W11" t="n">
-        <v>2891.532987789452</v>
+        <v>2891.532987789451</v>
       </c>
       <c r="X11" t="n">
         <v>2588.930484859777</v>
@@ -5120,25 +5120,25 @@
         <v>76.85057413772763</v>
       </c>
       <c r="J12" t="n">
-        <v>201.376488842563</v>
+        <v>76.85057413772763</v>
       </c>
       <c r="K12" t="n">
-        <v>540.8319543838122</v>
+        <v>416.3060396789767</v>
       </c>
       <c r="L12" t="n">
-        <v>1058.676115497192</v>
+        <v>934.1502007923566</v>
       </c>
       <c r="M12" t="n">
-        <v>1714.95504802569</v>
+        <v>1129.381120208355</v>
       </c>
       <c r="N12" t="n">
-        <v>2325.472107170479</v>
+        <v>1412.293755274489</v>
       </c>
       <c r="O12" t="n">
-        <v>2499.758518512105</v>
+        <v>1976.503862700077</v>
       </c>
       <c r="P12" t="n">
-        <v>2620.305662731925</v>
+        <v>2412.329147873435</v>
       </c>
       <c r="Q12" t="n">
         <v>2650.969039824828</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>464.7913472457165</v>
+        <v>639.9141130932065</v>
       </c>
       <c r="C13" t="n">
-        <v>464.7913472457165</v>
+        <v>541.8411854967047</v>
       </c>
       <c r="D13" t="n">
-        <v>385.5379631647859</v>
+        <v>462.587801415774</v>
       </c>
       <c r="E13" t="n">
-        <v>385.5379631647859</v>
+        <v>385.537963164786</v>
       </c>
       <c r="F13" t="n">
-        <v>309.5112709982806</v>
+        <v>309.5112709982807</v>
       </c>
       <c r="G13" t="n">
         <v>211.8207971090394</v>
@@ -5223,28 +5223,28 @@
         <v>1666.500165852438</v>
       </c>
       <c r="R13" t="n">
-        <v>1666.500165852438</v>
+        <v>1609.273738698854</v>
       </c>
       <c r="S13" t="n">
-        <v>1530.848799689622</v>
+        <v>1473.622372536037</v>
       </c>
       <c r="T13" t="n">
-        <v>1376.309807592173</v>
+        <v>1319.083380438589</v>
       </c>
       <c r="U13" t="n">
-        <v>1158.023783725838</v>
+        <v>1241.57617484526</v>
       </c>
       <c r="V13" t="n">
-        <v>974.2025508513567</v>
+        <v>1057.754941970778</v>
       </c>
       <c r="W13" t="n">
-        <v>882.6321761232884</v>
+        <v>1057.754941970778</v>
       </c>
       <c r="X13" t="n">
-        <v>725.5058805566762</v>
+        <v>900.6286464041661</v>
       </c>
       <c r="Y13" t="n">
-        <v>575.5765567445511</v>
+        <v>750.6993225920412</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1953.917823482653</v>
+        <v>1953.917823482654</v>
       </c>
       <c r="C14" t="n">
-        <v>1655.818561873646</v>
+        <v>1655.818561873647</v>
       </c>
       <c r="D14" t="n">
-        <v>1368.416118598301</v>
+        <v>1368.416118598302</v>
       </c>
       <c r="E14" t="n">
-        <v>1053.491121331462</v>
+        <v>1053.491121331463</v>
       </c>
       <c r="F14" t="n">
-        <v>713.3684718732593</v>
+        <v>713.3684718732602</v>
       </c>
       <c r="G14" t="n">
-        <v>367.262357969998</v>
+        <v>367.2623579699984</v>
       </c>
       <c r="H14" t="n">
-        <v>121.1151903855695</v>
+        <v>121.11519038557</v>
       </c>
       <c r="I14" t="n">
         <v>76.85057413772763</v>
       </c>
       <c r="J14" t="n">
-        <v>275.3405912307186</v>
+        <v>275.3405912307187</v>
       </c>
       <c r="K14" t="n">
-        <v>693.5704778718658</v>
+        <v>693.5704778718659</v>
       </c>
       <c r="L14" t="n">
         <v>1264.698262208782</v>
@@ -5311,16 +5311,16 @@
         <v>3616.456994661458</v>
       </c>
       <c r="U14" t="n">
-        <v>3433.638019740325</v>
+        <v>3433.638019740327</v>
       </c>
       <c r="V14" t="n">
-        <v>3173.43838772816</v>
+        <v>3173.438387728161</v>
       </c>
       <c r="W14" t="n">
-        <v>2891.532987789451</v>
+        <v>2891.532987789452</v>
       </c>
       <c r="X14" t="n">
-        <v>2588.930484859776</v>
+        <v>2588.930484859777</v>
       </c>
       <c r="Y14" t="n">
         <v>2269.65440821537</v>
@@ -5357,22 +5357,22 @@
         <v>76.85057413772763</v>
       </c>
       <c r="J15" t="n">
-        <v>144.9564633629057</v>
+        <v>76.85057413772763</v>
       </c>
       <c r="K15" t="n">
-        <v>484.4119289041548</v>
+        <v>154.4854550365239</v>
       </c>
       <c r="L15" t="n">
-        <v>1002.256090017535</v>
+        <v>305.1976742994793</v>
       </c>
       <c r="M15" t="n">
-        <v>1197.487009433533</v>
+        <v>961.4766068279777</v>
       </c>
       <c r="N15" t="n">
-        <v>1412.293755274489</v>
+        <v>1650.832303269051</v>
       </c>
       <c r="O15" t="n">
-        <v>1976.503862700077</v>
+        <v>2215.042410694639</v>
       </c>
       <c r="P15" t="n">
         <v>2412.329147873435</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>587.8630302841524</v>
+        <v>639.9141130932065</v>
       </c>
       <c r="C16" t="n">
-        <v>489.7901026876506</v>
+        <v>541.8411854967047</v>
       </c>
       <c r="D16" t="n">
-        <v>410.53671860672</v>
+        <v>462.587801415774</v>
       </c>
       <c r="E16" t="n">
-        <v>333.486880355732</v>
+        <v>385.537963164786</v>
       </c>
       <c r="F16" t="n">
-        <v>257.4601881892268</v>
+        <v>309.5112709982807</v>
       </c>
       <c r="G16" t="n">
-        <v>159.7697142999855</v>
+        <v>211.8207971090394</v>
       </c>
       <c r="H16" t="n">
-        <v>76.85057413772763</v>
+        <v>128.9016569467815</v>
       </c>
       <c r="I16" t="n">
         <v>76.85057413772763</v>
@@ -5460,28 +5460,28 @@
         <v>1666.500165852438</v>
       </c>
       <c r="R16" t="n">
-        <v>1666.500165852438</v>
+        <v>1609.273738698854</v>
       </c>
       <c r="S16" t="n">
-        <v>1530.848799689622</v>
+        <v>1473.622372536037</v>
       </c>
       <c r="T16" t="n">
-        <v>1376.309807592173</v>
+        <v>1319.083380438589</v>
       </c>
       <c r="U16" t="n">
-        <v>1297.293797242927</v>
+        <v>1100.797356572254</v>
       </c>
       <c r="V16" t="n">
-        <v>1113.472564368445</v>
+        <v>916.9761236977726</v>
       </c>
       <c r="W16" t="n">
-        <v>894.9186496628897</v>
+        <v>916.9761236977726</v>
       </c>
       <c r="X16" t="n">
-        <v>737.7923540962774</v>
+        <v>900.6286464041661</v>
       </c>
       <c r="Y16" t="n">
-        <v>587.8630302841524</v>
+        <v>750.6993225920412</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1655.818561873647</v>
       </c>
       <c r="D17" t="n">
-        <v>1368.416118598301</v>
+        <v>1368.416118598302</v>
       </c>
       <c r="E17" t="n">
-        <v>1053.491121331462</v>
+        <v>1053.491121331463</v>
       </c>
       <c r="F17" t="n">
-        <v>713.3684718732596</v>
+        <v>713.3684718732602</v>
       </c>
       <c r="G17" t="n">
-        <v>367.262357969998</v>
+        <v>367.2623579699986</v>
       </c>
       <c r="H17" t="n">
         <v>121.1151903855696</v>
@@ -5548,7 +5548,7 @@
         <v>3616.456994661458</v>
       </c>
       <c r="U17" t="n">
-        <v>3433.638019740326</v>
+        <v>3433.638019740327</v>
       </c>
       <c r="V17" t="n">
         <v>3173.438387728161</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>280.5813801146456</v>
+        <v>413.1227181439232</v>
       </c>
       <c r="C19" t="n">
-        <v>280.5813801146456</v>
+        <v>315.0497905474214</v>
       </c>
       <c r="D19" t="n">
-        <v>251.5908862779569</v>
+        <v>235.7964064664907</v>
       </c>
       <c r="E19" t="n">
-        <v>174.5410480269689</v>
+        <v>235.7964064664907</v>
       </c>
       <c r="F19" t="n">
-        <v>174.5410480269689</v>
+        <v>159.7697142999855</v>
       </c>
       <c r="G19" t="n">
-        <v>76.85057413772763</v>
+        <v>159.7697142999855</v>
       </c>
       <c r="H19" t="n">
         <v>76.85057413772763</v>
@@ -5715,10 +5715,10 @@
         <v>698.4222089922175</v>
       </c>
       <c r="X19" t="n">
-        <v>541.2959134256052</v>
+        <v>673.8372514548828</v>
       </c>
       <c r="Y19" t="n">
-        <v>391.3665896134802</v>
+        <v>523.9079276427578</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1953.917823482653</v>
+        <v>1953.917823482654</v>
       </c>
       <c r="C20" t="n">
         <v>1655.818561873647</v>
@@ -5740,10 +5740,10 @@
         <v>1053.491121331462</v>
       </c>
       <c r="F20" t="n">
-        <v>713.3684718732598</v>
+        <v>713.3684718732596</v>
       </c>
       <c r="G20" t="n">
-        <v>367.2623579699981</v>
+        <v>367.262357969998</v>
       </c>
       <c r="H20" t="n">
         <v>121.1151903855696</v>
@@ -5785,13 +5785,13 @@
         <v>3616.456994661458</v>
       </c>
       <c r="U20" t="n">
-        <v>3433.638019740327</v>
+        <v>3433.638019740326</v>
       </c>
       <c r="V20" t="n">
         <v>3173.438387728161</v>
       </c>
       <c r="W20" t="n">
-        <v>2891.532987789451</v>
+        <v>2891.532987789452</v>
       </c>
       <c r="X20" t="n">
         <v>2588.930484859777</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>430.5107039267706</v>
+        <v>483.6108907612877</v>
       </c>
       <c r="C22" t="n">
-        <v>332.4377763302688</v>
+        <v>385.5379631647859</v>
       </c>
       <c r="D22" t="n">
-        <v>253.1843922493382</v>
+        <v>385.5379631647859</v>
       </c>
       <c r="E22" t="n">
-        <v>253.1843922493382</v>
+        <v>385.5379631647859</v>
       </c>
       <c r="F22" t="n">
-        <v>253.1843922493382</v>
+        <v>309.5112709982806</v>
       </c>
       <c r="G22" t="n">
-        <v>155.4939183600969</v>
+        <v>211.8207971090394</v>
       </c>
       <c r="H22" t="n">
-        <v>76.85057413772763</v>
+        <v>128.9016569467815</v>
       </c>
       <c r="I22" t="n">
         <v>76.85057413772763</v>
@@ -5934,28 +5934,28 @@
         <v>1666.500165852438</v>
       </c>
       <c r="R22" t="n">
-        <v>1609.273738698854</v>
+        <v>1666.500165852438</v>
       </c>
       <c r="S22" t="n">
-        <v>1473.622372536038</v>
+        <v>1530.848799689622</v>
       </c>
       <c r="T22" t="n">
-        <v>1319.08338043859</v>
+        <v>1376.309807592173</v>
       </c>
       <c r="U22" t="n">
-        <v>1100.797356572255</v>
+        <v>1158.023783725838</v>
       </c>
       <c r="V22" t="n">
-        <v>916.976123697773</v>
+        <v>974.2025508513567</v>
       </c>
       <c r="W22" t="n">
-        <v>698.4222089922175</v>
+        <v>755.6486361458012</v>
       </c>
       <c r="X22" t="n">
-        <v>541.2959134256052</v>
+        <v>598.5223405791889</v>
       </c>
       <c r="Y22" t="n">
-        <v>541.2959134256052</v>
+        <v>594.3961002601224</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1655.818561873647</v>
       </c>
       <c r="D23" t="n">
-        <v>1368.416118598302</v>
+        <v>1368.416118598301</v>
       </c>
       <c r="E23" t="n">
         <v>1053.491121331462</v>
       </c>
       <c r="F23" t="n">
-        <v>713.3684718732599</v>
+        <v>713.3684718732598</v>
       </c>
       <c r="G23" t="n">
-        <v>367.2623579699982</v>
+        <v>367.2623579699981</v>
       </c>
       <c r="H23" t="n">
         <v>121.1151903855696</v>
       </c>
       <c r="I23" t="n">
-        <v>76.85057413772765</v>
+        <v>76.85057413772763</v>
       </c>
       <c r="J23" t="n">
-        <v>275.3405912307185</v>
+        <v>275.3405912307186</v>
       </c>
       <c r="K23" t="n">
-        <v>693.5704778718659</v>
+        <v>693.5704778718658</v>
       </c>
       <c r="L23" t="n">
         <v>1264.698262208782</v>
@@ -6010,7 +6010,7 @@
         <v>3577.529780606515</v>
       </c>
       <c r="Q23" t="n">
-        <v>3835.238496664777</v>
+        <v>3835.238496664776</v>
       </c>
       <c r="R23" t="n">
         <v>3842.528706886382</v>
@@ -6022,10 +6022,10 @@
         <v>3616.456994661458</v>
       </c>
       <c r="U23" t="n">
-        <v>3433.638019740326</v>
+        <v>3433.638019740327</v>
       </c>
       <c r="V23" t="n">
-        <v>3173.43838772816</v>
+        <v>3173.438387728161</v>
       </c>
       <c r="W23" t="n">
         <v>2891.532987789452</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4156680144132</v>
+        <v>987.415668014413</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9626387332862</v>
+        <v>812.962638733286</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0282290720349</v>
+        <v>664.0282290720347</v>
       </c>
       <c r="E24" t="n">
-        <v>504.7907740665794</v>
+        <v>504.7907740665793</v>
       </c>
       <c r="F24" t="n">
         <v>358.2562160934643</v>
@@ -6065,31 +6065,31 @@
         <v>120.574085250828</v>
       </c>
       <c r="I24" t="n">
-        <v>76.85057413772765</v>
+        <v>76.85057413772763</v>
       </c>
       <c r="J24" t="n">
-        <v>76.85057413772765</v>
+        <v>201.376488842563</v>
       </c>
       <c r="K24" t="n">
-        <v>154.485455036524</v>
+        <v>540.8319543838122</v>
       </c>
       <c r="L24" t="n">
-        <v>672.3296161499038</v>
+        <v>691.5441736467676</v>
       </c>
       <c r="M24" t="n">
-        <v>1328.608548678402</v>
+        <v>1347.823106175266</v>
       </c>
       <c r="N24" t="n">
-        <v>2017.964245119476</v>
+        <v>2037.178802616339</v>
       </c>
       <c r="O24" t="n">
-        <v>2499.758518512106</v>
+        <v>2211.465213957965</v>
       </c>
       <c r="P24" t="n">
-        <v>2620.305662731926</v>
+        <v>2412.329147873435</v>
       </c>
       <c r="Q24" t="n">
-        <v>2650.969039824829</v>
+        <v>2650.969039824828</v>
       </c>
       <c r="R24" t="n">
         <v>2633.790787680777</v>
@@ -6098,7 +6098,7 @@
         <v>2485.500813813734</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.766888276874</v>
+        <v>2288.766888276873</v>
       </c>
       <c r="U24" t="n">
         <v>2060.632268964912</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>309.8937247055413</v>
+        <v>430.5107039267706</v>
       </c>
       <c r="C25" t="n">
-        <v>211.8207971090395</v>
+        <v>332.4377763302688</v>
       </c>
       <c r="D25" t="n">
-        <v>211.8207971090395</v>
+        <v>253.1843922493382</v>
       </c>
       <c r="E25" t="n">
-        <v>211.8207971090395</v>
+        <v>176.1345539983502</v>
       </c>
       <c r="F25" t="n">
-        <v>211.8207971090395</v>
+        <v>174.5410480269689</v>
       </c>
       <c r="G25" t="n">
-        <v>211.8207971090395</v>
+        <v>76.85057413772763</v>
       </c>
       <c r="H25" t="n">
-        <v>128.9016569467816</v>
+        <v>76.85057413772763</v>
       </c>
       <c r="I25" t="n">
-        <v>76.85057413772765</v>
+        <v>76.85057413772763</v>
       </c>
       <c r="J25" t="n">
         <v>132.4653229618426</v>
@@ -6159,7 +6159,7 @@
         <v>853.923532682951</v>
       </c>
       <c r="N25" t="n">
-        <v>1137.166387174266</v>
+        <v>1137.166387174267</v>
       </c>
       <c r="O25" t="n">
         <v>1388.072631016877</v>
@@ -6174,25 +6174,25 @@
         <v>1609.273738698854</v>
       </c>
       <c r="S25" t="n">
-        <v>1473.622372536037</v>
+        <v>1473.622372536038</v>
       </c>
       <c r="T25" t="n">
-        <v>1348.395725029486</v>
+        <v>1319.08338043859</v>
       </c>
       <c r="U25" t="n">
-        <v>1130.109701163151</v>
+        <v>1100.797356572255</v>
       </c>
       <c r="V25" t="n">
-        <v>946.2884682886689</v>
+        <v>916.976123697773</v>
       </c>
       <c r="W25" t="n">
-        <v>727.7345535831133</v>
+        <v>698.4222089922175</v>
       </c>
       <c r="X25" t="n">
-        <v>570.6082580165011</v>
+        <v>541.2959134256052</v>
       </c>
       <c r="Y25" t="n">
-        <v>420.678934204376</v>
+        <v>541.2959134256052</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1953.917823482653</v>
+        <v>1953.917823482654</v>
       </c>
       <c r="C26" t="n">
         <v>1655.818561873647</v>
       </c>
       <c r="D26" t="n">
-        <v>1368.416118598301</v>
+        <v>1368.416118598302</v>
       </c>
       <c r="E26" t="n">
         <v>1053.491121331462</v>
@@ -6223,13 +6223,13 @@
         <v>121.1151903855696</v>
       </c>
       <c r="I26" t="n">
-        <v>76.85057413772765</v>
+        <v>76.85057413772763</v>
       </c>
       <c r="J26" t="n">
-        <v>275.3405912307185</v>
+        <v>275.3405912307187</v>
       </c>
       <c r="K26" t="n">
-        <v>693.5704778718657</v>
+        <v>693.5704778718659</v>
       </c>
       <c r="L26" t="n">
         <v>1264.698262208782</v>
@@ -6247,7 +6247,7 @@
         <v>3577.529780606515</v>
       </c>
       <c r="Q26" t="n">
-        <v>3835.238496664777</v>
+        <v>3835.238496664776</v>
       </c>
       <c r="R26" t="n">
         <v>3842.528706886382</v>
@@ -6259,13 +6259,13 @@
         <v>3616.456994661458</v>
       </c>
       <c r="U26" t="n">
-        <v>3433.638019740326</v>
+        <v>3433.638019740327</v>
       </c>
       <c r="V26" t="n">
         <v>3173.438387728161</v>
       </c>
       <c r="W26" t="n">
-        <v>2891.532987789451</v>
+        <v>2891.532987789452</v>
       </c>
       <c r="X26" t="n">
         <v>2588.930484859777</v>
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4156680144132</v>
+        <v>987.415668014413</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9626387332862</v>
+        <v>812.962638733286</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0282290720349</v>
+        <v>664.0282290720347</v>
       </c>
       <c r="E27" t="n">
-        <v>504.7907740665794</v>
+        <v>504.7907740665793</v>
       </c>
       <c r="F27" t="n">
         <v>358.2562160934643</v>
@@ -6302,31 +6302,31 @@
         <v>120.574085250828</v>
       </c>
       <c r="I27" t="n">
-        <v>76.85057413772765</v>
+        <v>76.85057413772763</v>
       </c>
       <c r="J27" t="n">
-        <v>76.85057413772765</v>
+        <v>201.376488842563</v>
       </c>
       <c r="K27" t="n">
-        <v>154.485455036524</v>
+        <v>540.8319543838122</v>
       </c>
       <c r="L27" t="n">
-        <v>672.3296161499038</v>
+        <v>691.5441736467676</v>
       </c>
       <c r="M27" t="n">
-        <v>1328.608548678402</v>
+        <v>1347.823106175266</v>
       </c>
       <c r="N27" t="n">
-        <v>2017.964245119476</v>
+        <v>2037.178802616339</v>
       </c>
       <c r="O27" t="n">
-        <v>2499.758518512106</v>
+        <v>2211.465213957965</v>
       </c>
       <c r="P27" t="n">
-        <v>2620.305662731926</v>
+        <v>2412.329147873435</v>
       </c>
       <c r="Q27" t="n">
-        <v>2650.969039824829</v>
+        <v>2650.969039824828</v>
       </c>
       <c r="R27" t="n">
         <v>2633.790787680777</v>
@@ -6335,7 +6335,7 @@
         <v>2485.500813813734</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.766888276874</v>
+        <v>2288.766888276873</v>
       </c>
       <c r="U27" t="n">
         <v>2060.632268964912</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>430.5107039267697</v>
+        <v>504.9438901218949</v>
       </c>
       <c r="C28" t="n">
-        <v>332.4377763302678</v>
+        <v>406.870962525393</v>
       </c>
       <c r="D28" t="n">
         <v>327.6175784444623</v>
@@ -6375,19 +6375,19 @@
         <v>174.541048026969</v>
       </c>
       <c r="G28" t="n">
-        <v>76.85057413772765</v>
+        <v>76.85057413772763</v>
       </c>
       <c r="H28" t="n">
-        <v>76.85057413772765</v>
+        <v>76.85057413772763</v>
       </c>
       <c r="I28" t="n">
-        <v>76.85057413772765</v>
+        <v>76.85057413772763</v>
       </c>
       <c r="J28" t="n">
         <v>132.4653229618426</v>
       </c>
       <c r="K28" t="n">
-        <v>309.0146128052993</v>
+        <v>309.0146128052992</v>
       </c>
       <c r="L28" t="n">
         <v>571.0404050380801</v>
@@ -6408,28 +6408,28 @@
         <v>1666.500165852438</v>
       </c>
       <c r="R28" t="n">
-        <v>1609.273738698854</v>
+        <v>1666.500165852438</v>
       </c>
       <c r="S28" t="n">
-        <v>1473.622372536037</v>
+        <v>1530.848799689621</v>
       </c>
       <c r="T28" t="n">
-        <v>1319.083380438589</v>
+        <v>1376.309807592173</v>
       </c>
       <c r="U28" t="n">
-        <v>1100.797356572254</v>
+        <v>1158.023783725838</v>
       </c>
       <c r="V28" t="n">
-        <v>916.9761236977722</v>
+        <v>1141.338633705022</v>
       </c>
       <c r="W28" t="n">
-        <v>698.4222089922166</v>
+        <v>922.7847189994669</v>
       </c>
       <c r="X28" t="n">
-        <v>541.2959134256043</v>
+        <v>765.6584234328546</v>
       </c>
       <c r="Y28" t="n">
-        <v>541.2959134256043</v>
+        <v>615.7290996207296</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1953.917823482654</v>
+        <v>1953.917823482653</v>
       </c>
       <c r="C29" t="n">
         <v>1655.818561873647</v>
       </c>
       <c r="D29" t="n">
-        <v>1368.416118598302</v>
+        <v>1368.416118598301</v>
       </c>
       <c r="E29" t="n">
         <v>1053.491121331462</v>
       </c>
       <c r="F29" t="n">
-        <v>713.3684718732599</v>
+        <v>713.3684718732595</v>
       </c>
       <c r="G29" t="n">
-        <v>367.2623579699982</v>
+        <v>367.2623579699978</v>
       </c>
       <c r="H29" t="n">
-        <v>121.1151903855696</v>
+        <v>121.1151903855692</v>
       </c>
       <c r="I29" t="n">
-        <v>76.85057413772765</v>
+        <v>76.85057413772763</v>
       </c>
       <c r="J29" t="n">
-        <v>275.3405912307185</v>
+        <v>275.3405912307187</v>
       </c>
       <c r="K29" t="n">
-        <v>693.5704778718657</v>
+        <v>693.5704778718659</v>
       </c>
       <c r="L29" t="n">
         <v>1264.698262208782</v>
@@ -6478,31 +6478,31 @@
         <v>2564.810363916316</v>
       </c>
       <c r="O29" t="n">
-        <v>3131.525719201381</v>
+        <v>3131.52571920138</v>
       </c>
       <c r="P29" t="n">
         <v>3577.529780606515</v>
       </c>
       <c r="Q29" t="n">
-        <v>3835.238496664777</v>
+        <v>3835.238496664776</v>
       </c>
       <c r="R29" t="n">
         <v>3842.528706886382</v>
       </c>
       <c r="S29" t="n">
-        <v>3759.875250217057</v>
+        <v>3759.875250217056</v>
       </c>
       <c r="T29" t="n">
         <v>3616.456994661458</v>
       </c>
       <c r="U29" t="n">
-        <v>3433.638019740327</v>
+        <v>3433.638019740326</v>
       </c>
       <c r="V29" t="n">
         <v>3173.438387728161</v>
       </c>
       <c r="W29" t="n">
-        <v>2891.532987789452</v>
+        <v>2891.532987789451</v>
       </c>
       <c r="X29" t="n">
         <v>2588.930484859777</v>
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4156680144132</v>
+        <v>987.415668014413</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9626387332862</v>
+        <v>812.962638733286</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0282290720349</v>
+        <v>664.0282290720347</v>
       </c>
       <c r="E30" t="n">
-        <v>504.7907740665794</v>
+        <v>504.7907740665793</v>
       </c>
       <c r="F30" t="n">
         <v>358.2562160934643</v>
@@ -6539,22 +6539,22 @@
         <v>120.574085250828</v>
       </c>
       <c r="I30" t="n">
-        <v>76.85057413772765</v>
+        <v>76.85057413772763</v>
       </c>
       <c r="J30" t="n">
-        <v>201.376488842563</v>
+        <v>144.9564633629057</v>
       </c>
       <c r="K30" t="n">
-        <v>540.8319543838122</v>
+        <v>484.4119289041548</v>
       </c>
       <c r="L30" t="n">
-        <v>1058.676115497192</v>
+        <v>1002.256090017535</v>
       </c>
       <c r="M30" t="n">
-        <v>1253.907034913191</v>
+        <v>1197.487009433533</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.713780754146</v>
+        <v>1412.293755274489</v>
       </c>
       <c r="O30" t="n">
         <v>1976.503862700077</v>
@@ -6563,7 +6563,7 @@
         <v>2412.329147873435</v>
       </c>
       <c r="Q30" t="n">
-        <v>2650.969039824829</v>
+        <v>2650.969039824828</v>
       </c>
       <c r="R30" t="n">
         <v>2633.790787680777</v>
@@ -6572,7 +6572,7 @@
         <v>2485.500813813734</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.766888276874</v>
+        <v>2288.766888276873</v>
       </c>
       <c r="U30" t="n">
         <v>2060.632268964912</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>280.5813801146446</v>
+        <v>490.1725563949115</v>
       </c>
       <c r="C31" t="n">
-        <v>280.5813801146446</v>
+        <v>392.0996287984096</v>
       </c>
       <c r="D31" t="n">
-        <v>201.3279960337139</v>
+        <v>312.8462447174789</v>
       </c>
       <c r="E31" t="n">
-        <v>124.2781577827259</v>
+        <v>235.7964064664909</v>
       </c>
       <c r="F31" t="n">
-        <v>76.85057413772765</v>
+        <v>159.7697142999855</v>
       </c>
       <c r="G31" t="n">
-        <v>76.85057413772765</v>
+        <v>159.7697142999855</v>
       </c>
       <c r="H31" t="n">
-        <v>76.85057413772765</v>
+        <v>76.85057413772763</v>
       </c>
       <c r="I31" t="n">
-        <v>76.85057413772765</v>
+        <v>76.85057413772763</v>
       </c>
       <c r="J31" t="n">
         <v>132.4653229618426</v>
       </c>
       <c r="K31" t="n">
-        <v>309.0146128052993</v>
+        <v>309.0146128052992</v>
       </c>
       <c r="L31" t="n">
         <v>571.0404050380801</v>
@@ -6645,28 +6645,28 @@
         <v>1666.500165852438</v>
       </c>
       <c r="R31" t="n">
-        <v>1609.273738698854</v>
+        <v>1666.500165852438</v>
       </c>
       <c r="S31" t="n">
-        <v>1473.622372536037</v>
+        <v>1530.848799689621</v>
       </c>
       <c r="T31" t="n">
-        <v>1319.083380438589</v>
+        <v>1376.309807592173</v>
       </c>
       <c r="U31" t="n">
-        <v>1100.797356572254</v>
+        <v>1310.388532852521</v>
       </c>
       <c r="V31" t="n">
-        <v>916.9761236977722</v>
+        <v>1126.567299978039</v>
       </c>
       <c r="W31" t="n">
-        <v>698.4222089922166</v>
+        <v>908.0133852724834</v>
       </c>
       <c r="X31" t="n">
-        <v>541.2959134256043</v>
+        <v>750.8870897058712</v>
       </c>
       <c r="Y31" t="n">
-        <v>391.3665896134793</v>
+        <v>600.9577658937461</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1953.917823482653</v>
+        <v>1953.917823482654</v>
       </c>
       <c r="C32" t="n">
         <v>1655.818561873647</v>
       </c>
       <c r="D32" t="n">
-        <v>1368.416118598301</v>
+        <v>1368.416118598302</v>
       </c>
       <c r="E32" t="n">
         <v>1053.491121331462</v>
       </c>
       <c r="F32" t="n">
-        <v>713.3684718732593</v>
+        <v>713.3684718732599</v>
       </c>
       <c r="G32" t="n">
-        <v>367.2623579699975</v>
+        <v>367.2623579699982</v>
       </c>
       <c r="H32" t="n">
-        <v>121.115190385569</v>
+        <v>121.1151903855696</v>
       </c>
       <c r="I32" t="n">
         <v>76.85057413772765</v>
       </c>
       <c r="J32" t="n">
-        <v>275.3405912307185</v>
+        <v>275.3405912307186</v>
       </c>
       <c r="K32" t="n">
-        <v>693.5704778718657</v>
+        <v>693.5704778718658</v>
       </c>
       <c r="L32" t="n">
         <v>1264.698262208782</v>
@@ -6715,7 +6715,7 @@
         <v>2564.810363916316</v>
       </c>
       <c r="O32" t="n">
-        <v>3131.52571920138</v>
+        <v>3131.525719201381</v>
       </c>
       <c r="P32" t="n">
         <v>3577.529780606516</v>
@@ -6733,13 +6733,13 @@
         <v>3616.456994661458</v>
       </c>
       <c r="U32" t="n">
-        <v>3433.638019740326</v>
+        <v>3433.638019740327</v>
       </c>
       <c r="V32" t="n">
         <v>3173.438387728161</v>
       </c>
       <c r="W32" t="n">
-        <v>2891.532987789451</v>
+        <v>2891.532987789452</v>
       </c>
       <c r="X32" t="n">
         <v>2588.930484859777</v>
@@ -6779,19 +6779,19 @@
         <v>76.85057413772765</v>
       </c>
       <c r="J33" t="n">
-        <v>201.376488842563</v>
+        <v>144.9564633629062</v>
       </c>
       <c r="K33" t="n">
-        <v>540.8319543838122</v>
+        <v>484.4119289041553</v>
       </c>
       <c r="L33" t="n">
-        <v>1058.676115497192</v>
+        <v>1002.256090017535</v>
       </c>
       <c r="M33" t="n">
-        <v>1253.907034913191</v>
+        <v>1197.487009433534</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.713780754146</v>
+        <v>1412.293755274489</v>
       </c>
       <c r="O33" t="n">
         <v>1976.503862700077</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>448.5930167670632</v>
+        <v>407.2534162326536</v>
       </c>
       <c r="C34" t="n">
-        <v>350.5200891705613</v>
+        <v>309.1804886361517</v>
       </c>
       <c r="D34" t="n">
-        <v>271.2667050896306</v>
+        <v>229.9271045552211</v>
       </c>
       <c r="E34" t="n">
-        <v>271.2667050896306</v>
+        <v>152.877266304233</v>
       </c>
       <c r="F34" t="n">
-        <v>195.2400129231253</v>
+        <v>76.85057413772765</v>
       </c>
       <c r="G34" t="n">
-        <v>128.9016569467816</v>
+        <v>76.85057413772765</v>
       </c>
       <c r="H34" t="n">
-        <v>128.9016569467816</v>
+        <v>76.85057413772765</v>
       </c>
       <c r="I34" t="n">
         <v>76.85057413772765</v>
@@ -6903,7 +6903,7 @@
         <v>598.5223405791883</v>
       </c>
       <c r="Y34" t="n">
-        <v>448.5930167670632</v>
+        <v>518.0386257314883</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1953.917823482653</v>
+        <v>1953.917823482654</v>
       </c>
       <c r="C35" t="n">
         <v>1655.818561873647</v>
       </c>
       <c r="D35" t="n">
-        <v>1368.4161185983</v>
+        <v>1368.416118598302</v>
       </c>
       <c r="E35" t="n">
-        <v>1053.491121331461</v>
+        <v>1053.491121331462</v>
       </c>
       <c r="F35" t="n">
-        <v>713.3684718732588</v>
+        <v>713.3684718732599</v>
       </c>
       <c r="G35" t="n">
-        <v>367.2623579699971</v>
+        <v>367.2623579699982</v>
       </c>
       <c r="H35" t="n">
         <v>121.1151903855696</v>
@@ -6955,10 +6955,10 @@
         <v>3131.52571920138</v>
       </c>
       <c r="P35" t="n">
-        <v>3577.529780606516</v>
+        <v>3577.529780606515</v>
       </c>
       <c r="Q35" t="n">
-        <v>3835.238496664777</v>
+        <v>3835.238496664776</v>
       </c>
       <c r="R35" t="n">
         <v>3842.528706886383</v>
@@ -6967,16 +6967,16 @@
         <v>3759.875250217058</v>
       </c>
       <c r="T35" t="n">
-        <v>3616.456994661459</v>
+        <v>3616.45699466146</v>
       </c>
       <c r="U35" t="n">
-        <v>3433.638019740326</v>
+        <v>3433.638019740327</v>
       </c>
       <c r="V35" t="n">
         <v>3173.438387728161</v>
       </c>
       <c r="W35" t="n">
-        <v>2891.532987789451</v>
+        <v>2891.532987789452</v>
       </c>
       <c r="X35" t="n">
         <v>2588.930484859777</v>
@@ -7022,19 +7022,19 @@
         <v>540.8319543838122</v>
       </c>
       <c r="L36" t="n">
-        <v>691.5441736467676</v>
+        <v>1058.676115497192</v>
       </c>
       <c r="M36" t="n">
-        <v>1320.838269775868</v>
+        <v>1253.907034913191</v>
       </c>
       <c r="N36" t="n">
-        <v>2010.193966216942</v>
+        <v>1468.713780754146</v>
       </c>
       <c r="O36" t="n">
-        <v>2184.480377558568</v>
+        <v>1976.503862700077</v>
       </c>
       <c r="P36" t="n">
-        <v>2620.305662731926</v>
+        <v>2412.329147873435</v>
       </c>
       <c r="Q36" t="n">
         <v>2650.969039824829</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>355.5331157857288</v>
+        <v>407.5841985947827</v>
       </c>
       <c r="C37" t="n">
-        <v>257.4601881892269</v>
+        <v>309.5112709982808</v>
       </c>
       <c r="D37" t="n">
-        <v>257.4601881892269</v>
+        <v>309.5112709982808</v>
       </c>
       <c r="E37" t="n">
-        <v>257.4601881892269</v>
+        <v>309.5112709982808</v>
       </c>
       <c r="F37" t="n">
-        <v>257.4601881892269</v>
+        <v>309.5112709982808</v>
       </c>
       <c r="G37" t="n">
-        <v>159.7697142999856</v>
+        <v>211.8207971090395</v>
       </c>
       <c r="H37" t="n">
-        <v>76.85057413772766</v>
+        <v>128.9016569467816</v>
       </c>
       <c r="I37" t="n">
         <v>76.85057413772766</v>
@@ -7128,19 +7128,19 @@
         <v>1319.083380438589</v>
       </c>
       <c r="U37" t="n">
-        <v>1175.749092243338</v>
+        <v>1100.797356572254</v>
       </c>
       <c r="V37" t="n">
-        <v>991.9278593688564</v>
+        <v>916.9761236977722</v>
       </c>
       <c r="W37" t="n">
-        <v>773.3739446633008</v>
+        <v>825.4250274723547</v>
       </c>
       <c r="X37" t="n">
-        <v>616.2476490966885</v>
+        <v>668.2987319057424</v>
       </c>
       <c r="Y37" t="n">
-        <v>466.3183252845635</v>
+        <v>518.3694080936174</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1953.917823482653</v>
+        <v>1953.917823482654</v>
       </c>
       <c r="C38" t="n">
         <v>1655.818561873647</v>
       </c>
       <c r="D38" t="n">
-        <v>1368.416118598301</v>
+        <v>1368.416118598302</v>
       </c>
       <c r="E38" t="n">
-        <v>1053.491121331462</v>
+        <v>1053.491121331463</v>
       </c>
       <c r="F38" t="n">
-        <v>713.3684718732598</v>
+        <v>713.36847187326</v>
       </c>
       <c r="G38" t="n">
-        <v>367.2623579699981</v>
+        <v>367.2623579699982</v>
       </c>
       <c r="H38" t="n">
         <v>121.1151903855696</v>
       </c>
       <c r="I38" t="n">
-        <v>76.85057413772765</v>
+        <v>76.85057413772766</v>
       </c>
       <c r="J38" t="n">
-        <v>275.3405912307185</v>
+        <v>275.3405912307186</v>
       </c>
       <c r="K38" t="n">
-        <v>693.5704778718657</v>
+        <v>693.5704778718659</v>
       </c>
       <c r="L38" t="n">
         <v>1264.698262208782</v>
@@ -7189,16 +7189,16 @@
         <v>2564.810363916316</v>
       </c>
       <c r="O38" t="n">
-        <v>3131.525719201381</v>
+        <v>3131.52571920138</v>
       </c>
       <c r="P38" t="n">
         <v>3577.529780606515</v>
       </c>
       <c r="Q38" t="n">
-        <v>3835.238496664777</v>
+        <v>3835.238496664776</v>
       </c>
       <c r="R38" t="n">
-        <v>3842.528706886382</v>
+        <v>3842.528706886383</v>
       </c>
       <c r="S38" t="n">
         <v>3759.875250217057</v>
@@ -7210,16 +7210,16 @@
         <v>3433.638019740327</v>
       </c>
       <c r="V38" t="n">
-        <v>3173.438387728161</v>
+        <v>3173.438387728162</v>
       </c>
       <c r="W38" t="n">
-        <v>2891.532987789451</v>
+        <v>2891.532987789452</v>
       </c>
       <c r="X38" t="n">
-        <v>2588.930484859777</v>
+        <v>2588.930484859778</v>
       </c>
       <c r="Y38" t="n">
-        <v>2269.65440821537</v>
+        <v>2269.654408215371</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>120.574085250828</v>
       </c>
       <c r="I39" t="n">
-        <v>76.85057413772765</v>
+        <v>76.85057413772766</v>
       </c>
       <c r="J39" t="n">
-        <v>201.376488842563</v>
+        <v>201.3764888425631</v>
       </c>
       <c r="K39" t="n">
         <v>540.8319543838122</v>
       </c>
       <c r="L39" t="n">
-        <v>771.8609633424172</v>
+        <v>1058.676115497192</v>
       </c>
       <c r="M39" t="n">
-        <v>1428.139895870916</v>
+        <v>1253.907034913191</v>
       </c>
       <c r="N39" t="n">
-        <v>2117.495592311989</v>
+        <v>1468.713780754146</v>
       </c>
       <c r="O39" t="n">
-        <v>2291.782003653615</v>
+        <v>1976.503862700077</v>
       </c>
       <c r="P39" t="n">
         <v>2412.329147873435</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>309.5112709982807</v>
+        <v>563.8874209267015</v>
       </c>
       <c r="C40" t="n">
-        <v>309.5112709982807</v>
+        <v>465.8144933301996</v>
       </c>
       <c r="D40" t="n">
-        <v>309.5112709982807</v>
+        <v>386.561109249269</v>
       </c>
       <c r="E40" t="n">
-        <v>309.5112709982807</v>
+        <v>309.5112709982808</v>
       </c>
       <c r="F40" t="n">
-        <v>309.5112709982807</v>
+        <v>309.5112709982808</v>
       </c>
       <c r="G40" t="n">
-        <v>211.8207971090394</v>
+        <v>211.8207971090395</v>
       </c>
       <c r="H40" t="n">
-        <v>128.9016569467815</v>
+        <v>128.9016569467816</v>
       </c>
       <c r="I40" t="n">
-        <v>76.85057413772765</v>
+        <v>76.85057413772766</v>
       </c>
       <c r="J40" t="n">
         <v>132.4653229618426</v>
@@ -7344,7 +7344,7 @@
         <v>853.923532682951</v>
       </c>
       <c r="N40" t="n">
-        <v>1137.166387174267</v>
+        <v>1137.166387174266</v>
       </c>
       <c r="O40" t="n">
         <v>1388.072631016877</v>
@@ -7356,28 +7356,28 @@
         <v>1666.500165852438</v>
       </c>
       <c r="R40" t="n">
-        <v>1609.273738698854</v>
+        <v>1666.500165852438</v>
       </c>
       <c r="S40" t="n">
-        <v>1473.622372536037</v>
+        <v>1666.500165852438</v>
       </c>
       <c r="T40" t="n">
-        <v>1319.083380438589</v>
+        <v>1511.96117375499</v>
       </c>
       <c r="U40" t="n">
-        <v>1100.797356572254</v>
+        <v>1293.675149888655</v>
       </c>
       <c r="V40" t="n">
-        <v>916.9761236977726</v>
+        <v>1200.282164509829</v>
       </c>
       <c r="W40" t="n">
-        <v>698.4222089922171</v>
+        <v>981.7282498042734</v>
       </c>
       <c r="X40" t="n">
-        <v>541.2959134256048</v>
+        <v>824.6019542376612</v>
       </c>
       <c r="Y40" t="n">
-        <v>391.3665896134798</v>
+        <v>674.6726304255361</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1949.044486624998</v>
+        <v>1976.567040616492</v>
       </c>
       <c r="C41" t="n">
-        <v>1580.081969684586</v>
+        <v>1607.60452367608</v>
       </c>
       <c r="D41" t="n">
-        <v>1221.816271077836</v>
+        <v>1607.60452367608</v>
       </c>
       <c r="E41" t="n">
         <v>1221.816271077836</v>
@@ -7411,7 +7411,7 @@
         <v>76.85057413772766</v>
       </c>
       <c r="J41" t="n">
-        <v>275.3405912307186</v>
+        <v>275.3405912307189</v>
       </c>
       <c r="K41" t="n">
         <v>693.5704778718659</v>
@@ -7426,37 +7426,37 @@
         <v>2564.810363916316</v>
       </c>
       <c r="O41" t="n">
-        <v>3131.52571920138</v>
+        <v>3131.525719201381</v>
       </c>
       <c r="P41" t="n">
-        <v>3577.529780606515</v>
+        <v>3577.529780606516</v>
       </c>
       <c r="Q41" t="n">
-        <v>3835.238496664776</v>
+        <v>3835.238496664777</v>
       </c>
       <c r="R41" t="n">
         <v>3842.528706886383</v>
       </c>
       <c r="S41" t="n">
-        <v>3689.011994885653</v>
+        <v>3842.528706886383</v>
       </c>
       <c r="T41" t="n">
-        <v>3689.011994885653</v>
+        <v>3711.517088513612</v>
       </c>
       <c r="U41" t="n">
-        <v>3689.011994885653</v>
+        <v>3457.834858261076</v>
       </c>
       <c r="V41" t="n">
-        <v>3452.018072196126</v>
+        <v>3126.771970917505</v>
       </c>
       <c r="W41" t="n">
-        <v>3099.249416926011</v>
+        <v>3126.771970917505</v>
       </c>
       <c r="X41" t="n">
-        <v>2725.783658664931</v>
+        <v>2753.306212656425</v>
       </c>
       <c r="Y41" t="n">
-        <v>2335.64432668912</v>
+        <v>2363.166880680613</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>76.85057413772766</v>
       </c>
       <c r="J42" t="n">
-        <v>76.85057413772766</v>
+        <v>144.9564633629062</v>
       </c>
       <c r="K42" t="n">
-        <v>217.8394931625279</v>
+        <v>484.4119289041553</v>
       </c>
       <c r="L42" t="n">
-        <v>735.6836542759078</v>
+        <v>1002.256090017535</v>
       </c>
       <c r="M42" t="n">
-        <v>930.9145736919062</v>
+        <v>1197.487009433534</v>
       </c>
       <c r="N42" t="n">
-        <v>1620.27027013298</v>
+        <v>1412.293755274489</v>
       </c>
       <c r="O42" t="n">
-        <v>2184.480377558568</v>
+        <v>1976.503862700077</v>
       </c>
       <c r="P42" t="n">
-        <v>2620.305662731926</v>
+        <v>2412.329147873435</v>
       </c>
       <c r="Q42" t="n">
         <v>2650.969039824829</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>224.7636677201208</v>
+        <v>775.8316195476335</v>
       </c>
       <c r="C43" t="n">
-        <v>224.7636677201208</v>
+        <v>606.8954366197266</v>
       </c>
       <c r="D43" t="n">
-        <v>224.7636677201208</v>
+        <v>516.2317350812261</v>
       </c>
       <c r="E43" t="n">
-        <v>76.85057413772766</v>
+        <v>368.318641498833</v>
       </c>
       <c r="F43" t="n">
-        <v>76.85057413772766</v>
+        <v>368.318641498833</v>
       </c>
       <c r="G43" t="n">
-        <v>76.85057413772766</v>
+        <v>199.7649122781866</v>
       </c>
       <c r="H43" t="n">
-        <v>76.85057413772766</v>
+        <v>199.7649122781866</v>
       </c>
       <c r="I43" t="n">
         <v>76.85057413772766</v>
@@ -7593,28 +7593,28 @@
         <v>1124.713881176153</v>
       </c>
       <c r="R43" t="n">
-        <v>1124.713881176153</v>
+        <v>996.6241986911637</v>
       </c>
       <c r="S43" t="n">
-        <v>1124.713881176153</v>
+        <v>996.6241986911637</v>
       </c>
       <c r="T43" t="n">
-        <v>899.3116337472997</v>
+        <v>996.6241986911637</v>
       </c>
       <c r="U43" t="n">
-        <v>610.1623545495596</v>
+        <v>996.6241986911637</v>
       </c>
       <c r="V43" t="n">
-        <v>452.7532186181381</v>
+        <v>996.6241986911637</v>
       </c>
       <c r="W43" t="n">
-        <v>452.7532186181381</v>
+        <v>996.6241986911637</v>
       </c>
       <c r="X43" t="n">
-        <v>224.7636677201208</v>
+        <v>996.6241986911637</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7636677201208</v>
+        <v>775.8316195476335</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2008.492233971684</v>
+        <v>2339.555121315255</v>
       </c>
       <c r="C44" t="n">
-        <v>1639.529717031273</v>
+        <v>1970.592604374843</v>
       </c>
       <c r="D44" t="n">
-        <v>1281.264018424522</v>
+        <v>1612.326905768093</v>
       </c>
       <c r="E44" t="n">
-        <v>895.4757658262779</v>
+        <v>1226.538653169848</v>
       </c>
       <c r="F44" t="n">
-        <v>484.4898610366703</v>
+        <v>815.5527483802409</v>
       </c>
       <c r="G44" t="n">
-        <v>191.9784457169747</v>
+        <v>398.5833791455742</v>
       </c>
       <c r="H44" t="n">
-        <v>191.9784457169747</v>
+        <v>81.57295622974061</v>
       </c>
       <c r="I44" t="n">
         <v>76.85057413772766</v>
       </c>
       <c r="J44" t="n">
-        <v>275.3405912307185</v>
+        <v>275.3405912307186</v>
       </c>
       <c r="K44" t="n">
-        <v>693.5704778718657</v>
+        <v>693.5704778718659</v>
       </c>
       <c r="L44" t="n">
         <v>1264.698262208782</v>
@@ -7669,7 +7669,7 @@
         <v>3577.529780606515</v>
       </c>
       <c r="Q44" t="n">
-        <v>3835.238496664777</v>
+        <v>3835.238496664776</v>
       </c>
       <c r="R44" t="n">
         <v>3842.528706886383</v>
@@ -7684,16 +7684,16 @@
         <v>3842.528706886383</v>
       </c>
       <c r="V44" t="n">
-        <v>3511.465819542812</v>
+        <v>3842.528706886383</v>
       </c>
       <c r="W44" t="n">
-        <v>3158.697164272698</v>
+        <v>3489.760051616268</v>
       </c>
       <c r="X44" t="n">
-        <v>2785.231406011618</v>
+        <v>3116.294293355189</v>
       </c>
       <c r="Y44" t="n">
-        <v>2395.092074035806</v>
+        <v>2726.154961379377</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>76.85057413772766</v>
       </c>
       <c r="J45" t="n">
-        <v>144.9564633629062</v>
+        <v>153.5901670967034</v>
       </c>
       <c r="K45" t="n">
-        <v>484.4119289041553</v>
+        <v>231.2250479954998</v>
       </c>
       <c r="L45" t="n">
-        <v>1002.256090017535</v>
+        <v>381.9372672584551</v>
       </c>
       <c r="M45" t="n">
-        <v>1197.487009433534</v>
+        <v>1038.216199786953</v>
       </c>
       <c r="N45" t="n">
-        <v>1412.293755274489</v>
+        <v>1727.571896228027</v>
       </c>
       <c r="O45" t="n">
-        <v>1976.503862700077</v>
+        <v>2291.782003653615</v>
       </c>
       <c r="P45" t="n">
         <v>2412.329147873435</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>223.740521635638</v>
+        <v>403.3798422161171</v>
       </c>
       <c r="C46" t="n">
-        <v>223.740521635638</v>
+        <v>403.3798422161171</v>
       </c>
       <c r="D46" t="n">
-        <v>223.740521635638</v>
+        <v>403.3798422161171</v>
       </c>
       <c r="E46" t="n">
-        <v>223.740521635638</v>
+        <v>403.3798422161171</v>
       </c>
       <c r="F46" t="n">
-        <v>76.85057413772766</v>
+        <v>403.3798422161171</v>
       </c>
       <c r="G46" t="n">
-        <v>76.85057413772766</v>
+        <v>234.8261129954707</v>
       </c>
       <c r="H46" t="n">
-        <v>76.85057413772766</v>
+        <v>81.04371750180775</v>
       </c>
       <c r="I46" t="n">
         <v>76.85057413772766</v>
@@ -7833,25 +7833,25 @@
         <v>1124.713881176153</v>
       </c>
       <c r="S46" t="n">
-        <v>1124.713881176153</v>
+        <v>918.1992596819307</v>
       </c>
       <c r="T46" t="n">
-        <v>1124.713881176153</v>
+        <v>692.7970122530777</v>
       </c>
       <c r="U46" t="n">
-        <v>1124.713881176153</v>
+        <v>692.7970122530777</v>
       </c>
       <c r="V46" t="n">
-        <v>870.0293929702658</v>
+        <v>692.7970122530777</v>
       </c>
       <c r="W46" t="n">
-        <v>580.6122229333052</v>
+        <v>403.3798422161171</v>
       </c>
       <c r="X46" t="n">
-        <v>352.6226720352879</v>
+        <v>403.3798422161171</v>
       </c>
       <c r="Y46" t="n">
-        <v>352.6226720352879</v>
+        <v>403.3798422161171</v>
       </c>
     </row>
   </sheetData>
@@ -7984,10 +7984,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>272.6952875305729</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
         <v>273.5452359758195</v>
@@ -7996,7 +7996,7 @@
         <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>182.6865521591028</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>176.3234617176304</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
         <v>184.1139464652501</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>273.5452359758195</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
         <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>273.5820500585697</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>180.1904932776592</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>186.2662063012469</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O6" t="n">
         <v>186.728416823673</v>
@@ -8458,7 +8458,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>278.1154692732874</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
         <v>274.4784056065013</v>
@@ -8467,7 +8467,7 @@
         <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
-        <v>184.9452987477446</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
         <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0.3072831133023612</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,19 +8777,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>399.7073871755892</v>
+        <v>68.79382750017984</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298239</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,25 +9005,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>69.10111061348223</v>
+        <v>0.3072831133023612</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>77.51474036260109</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9181,13 +9181,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298239</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3072831133023612</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9731,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>310.6140020717212</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>81.12807039964559</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3072831133023612</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>310.6140020717212</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>81.12807039964559</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>69.10111061348223</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>336.8723945498033</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928329</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>69.10111061348267</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>336.8723945498033</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10603,13 +10603,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714837</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298376</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,22 +10670,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>438.447653245558</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>336.8723945498033</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298329</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,19 +10907,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>81.12807039964611</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>336.8723945498033</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298329</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0.3072831133023612</v>
+        <v>69.10111061348266</v>
       </c>
       <c r="K42" t="n">
-        <v>63.99397790505444</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298329</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,25 +11375,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>69.10111061348266</v>
+        <v>77.82202347590415</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.09219832053678</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>76.27933986847812</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.65416288204808</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>139.3710300902756</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>125.7137045777124</v>
+        <v>216.3683755585</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>109.6773574038462</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>51.53057198096333</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.65416288204808</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>137.8773133819178</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>216.3683755585</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>139.3710300902758</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>97.0921983205368</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>49.76026134179948</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>76.27933986847813</v>
       </c>
       <c r="F19" t="n">
-        <v>75.26642524484021</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>96.71356915034885</v>
       </c>
       <c r="H19" t="n">
-        <v>82.08994876063528</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>51.53057198096334</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>131.2159246489847</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>78.46085024012132</v>
       </c>
       <c r="E22" t="n">
         <v>76.27933986847813</v>
       </c>
       <c r="F22" t="n">
-        <v>75.26642524484021</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>4.233037980489684</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>51.53057198096334</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>56.65416288204809</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>148.4300305740038</v>
+        <v>144.3450526581278</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>78.46085024012136</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>76.27933986847817</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>75.26642524484025</v>
+        <v>73.68885433317273</v>
       </c>
       <c r="G25" t="n">
-        <v>96.71356915034889</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>82.08994876063528</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>51.53057198096334</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>29.01922114498758</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>148.4300305740038</v>
       </c>
     </row>
     <row r="26">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>73.68885433317392</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>82.08994876063534</v>
       </c>
       <c r="I28" t="n">
-        <v>51.53057198096339</v>
+        <v>51.5305719809634</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>56.65416288204815</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>165.4647220251296</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>148.4300305740038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>97.09219832053684</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>28.31311743629201</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>96.71356915034889</v>
       </c>
       <c r="H31" t="n">
-        <v>82.08994876063534</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>51.53057198096339</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>56.65416288204813</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>150.8411016354161</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.6773574038463</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>76.2793398684782</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>31.03859673376866</v>
+        <v>96.7135691503489</v>
       </c>
       <c r="H34" t="n">
-        <v>82.08994876063537</v>
+        <v>82.08994876063534</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>51.5305719809634</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>56.65416288204816</v>
+        <v>56.65416288204815</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>68.75115287478086</v>
       </c>
     </row>
     <row r="35">
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>51.5305719809634</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>74.20221831437331</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>125.7327902953367</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.64059197479916</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>97.09219832053681</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>78.46085024012133</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>76.27933986847815</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>75.26642524484022</v>
+        <v>75.26642524484026</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>56.65416288204815</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>134.2948525011888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>89.52396502069942</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25633,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>151.9815448807229</v>
       </c>
       <c r="T41" t="n">
-        <v>212.1386957781336</v>
+        <v>82.43719358909078</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1454079500113</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>93.12827500750305</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>58.85840849509687</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.8681919284399</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>152.2445715387263</v>
       </c>
       <c r="I43" t="n">
-        <v>121.6851947590544</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>13.97810881433854</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>126.8087856601391</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>204.4494752792797</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>223.1482249545645</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2577864057626</v>
       </c>
       <c r="V43" t="n">
-        <v>96.30259875172075</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>123.2133743758214</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>313.8403186866752</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>109.3014345923617</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>251.1454079500113</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.2386512862839</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.8681919284399</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>152.2445715387263</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>121.6851947590544</v>
+        <v>117.5339828286151</v>
       </c>
       <c r="J46" t="n">
         <v>13.97810881433854</v>
@@ -26073,22 +26073,22 @@
         <v>126.8087856601391</v>
       </c>
       <c r="S46" t="n">
-        <v>204.4494752792797</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>223.1482249545645</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2577864057626</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>761929.5876095531</v>
+        <v>761929.5876095532</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>761929.5876095531</v>
+        <v>761929.5876095534</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>761929.5876095531</v>
+        <v>761929.5876095532</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>761929.5876095532</v>
+        <v>761929.5876095531</v>
       </c>
     </row>
     <row r="13">
@@ -26319,43 +26319,43 @@
         <v>738937.5928778551</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="E2" t="n">
+        <v>731253.6217158409</v>
+      </c>
+      <c r="F2" t="n">
         <v>731253.621715841</v>
       </c>
-      <c r="F2" t="n">
-        <v>731253.6217158408</v>
-      </c>
       <c r="G2" t="n">
-        <v>731253.6217158407</v>
+        <v>731253.621715841</v>
       </c>
       <c r="H2" t="n">
         <v>731253.6217158408</v>
       </c>
       <c r="I2" t="n">
+        <v>731253.6217158405</v>
+      </c>
+      <c r="J2" t="n">
         <v>731253.6217158411</v>
       </c>
-      <c r="J2" t="n">
-        <v>731253.621715841</v>
-      </c>
       <c r="K2" t="n">
-        <v>731253.621715841</v>
+        <v>731253.6217158408</v>
       </c>
       <c r="L2" t="n">
-        <v>731253.6217158408</v>
+        <v>731253.6217158409</v>
       </c>
       <c r="M2" t="n">
         <v>731253.6217158409</v>
       </c>
       <c r="N2" t="n">
-        <v>731253.621715841</v>
+        <v>731253.6217158408</v>
       </c>
       <c r="O2" t="n">
-        <v>619732.5413844892</v>
+        <v>619732.5413844893</v>
       </c>
       <c r="P2" t="n">
-        <v>619732.5413844892</v>
+        <v>619732.541384489</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>67670.61633246372</v>
+        <v>67670.61633246366</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26444,10 +26444,10 @@
         <v>142852.7532742028</v>
       </c>
       <c r="K4" t="n">
+        <v>142852.7532742027</v>
+      </c>
+      <c r="L4" t="n">
         <v>142852.7532742028</v>
-      </c>
-      <c r="L4" t="n">
-        <v>142852.7532742027</v>
       </c>
       <c r="M4" t="n">
         <v>142852.7532742028</v>
@@ -26459,7 +26459,7 @@
         <v>71958.80243602724</v>
       </c>
       <c r="P4" t="n">
-        <v>71958.80243602724</v>
+        <v>71958.80243602725</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>301741.4979259206</v>
       </c>
       <c r="C6" t="n">
-        <v>316531.203930165</v>
+        <v>316531.2039301651</v>
       </c>
       <c r="D6" t="n">
-        <v>316531.2039301648</v>
+        <v>316531.2039301654</v>
       </c>
       <c r="E6" t="n">
-        <v>-319688.9215245423</v>
+        <v>-319496.822245492</v>
       </c>
       <c r="F6" t="n">
-        <v>510309.6801581617</v>
+        <v>510501.7794372123</v>
       </c>
       <c r="G6" t="n">
-        <v>510309.6801581616</v>
+        <v>510501.7794372123</v>
       </c>
       <c r="H6" t="n">
-        <v>510309.6801581618</v>
+        <v>510501.779437212</v>
       </c>
       <c r="I6" t="n">
-        <v>510309.680158162</v>
+        <v>510501.7794372119</v>
       </c>
       <c r="J6" t="n">
-        <v>442639.0638256983</v>
+        <v>442831.1631047488</v>
       </c>
       <c r="K6" t="n">
-        <v>510309.680158162</v>
+        <v>510501.7794372122</v>
       </c>
       <c r="L6" t="n">
-        <v>510309.6801581618</v>
+        <v>510501.7794372122</v>
       </c>
       <c r="M6" t="n">
-        <v>281914.2130760265</v>
+        <v>282106.3123550769</v>
       </c>
       <c r="N6" t="n">
-        <v>510309.680158162</v>
+        <v>510501.7794372122</v>
       </c>
       <c r="O6" t="n">
-        <v>472482.571860335</v>
+        <v>475462.6981476693</v>
       </c>
       <c r="P6" t="n">
-        <v>472482.571860335</v>
+        <v>475462.698147669</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="F2" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="G2" t="n">
         <v>70.15462277809104</v>
@@ -26706,22 +26706,22 @@
         <v>70.15462277809104</v>
       </c>
       <c r="I2" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="J2" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="K2" t="n">
         <v>70.154622778091</v>
       </c>
       <c r="L2" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="M2" t="n">
         <v>70.15462277809098</v>
       </c>
       <c r="N2" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26810,22 +26810,22 @@
         <v>960.6321767215954</v>
       </c>
       <c r="I4" t="n">
-        <v>960.6321767215956</v>
+        <v>960.6321767215954</v>
       </c>
       <c r="J4" t="n">
-        <v>960.6321767215956</v>
+        <v>960.6321767215954</v>
       </c>
       <c r="K4" t="n">
-        <v>960.6321767215956</v>
+        <v>960.6321767215954</v>
       </c>
       <c r="L4" t="n">
         <v>960.6321767215956</v>
       </c>
       <c r="M4" t="n">
+        <v>960.6321767215958</v>
+      </c>
+      <c r="N4" t="n">
         <v>960.6321767215957</v>
-      </c>
-      <c r="N4" t="n">
-        <v>960.6321767215956</v>
       </c>
       <c r="O4" t="n">
         <v>960.6321767215957</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809097</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809097</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>310.5508692414544</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>362.7438733624829</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27438,7 +27438,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27466,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F3" t="n">
-        <v>106.9441862880172</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G3" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>68.10327185726787</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>51.27160674604839</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>123.1146487193992</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>104.4833006389838</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6435121988869</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27587,16 +27587,16 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>223.22614758929</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>208.0054709445994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>336.3919735539278</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27633,13 +27633,13 @@
         <v>371.1705651359065</v>
       </c>
       <c r="H5" t="n">
-        <v>322.5431732532999</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27703,19 +27703,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>119.5200543500343</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>93.21134478398204</v>
+        <v>99.21849105784395</v>
       </c>
       <c r="H6" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27815,19 +27815,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>157.361701111248</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>205.2924584272535</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>174.4524809728662</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,19 +27864,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>300.6031846841426</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>330.8460826936197</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27937,13 +27937,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>127.5509987246092</v>
+        <v>133.5581449984711</v>
       </c>
       <c r="T9" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>187.8163559756081</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28016,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>104.4833006389838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>102.3017902673406</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28031,10 +28031,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>154.660024479576</v>
       </c>
       <c r="J10" t="n">
-        <v>51.15799802486843</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28061,7 +28061,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="C11" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="D11" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="E11" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="F11" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="G11" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="H11" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="I11" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="T11" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="U11" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="V11" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="W11" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="X11" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="Y11" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="C13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="D13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="E13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="F13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="G13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="H13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="I13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="J13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="K13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="L13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="M13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="N13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="O13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="P13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="R13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="S13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="T13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="U13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="V13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="W13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="X13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="Y13" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="C14" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="D14" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="E14" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="F14" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="G14" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="H14" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="I14" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="T14" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="U14" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="V14" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="W14" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="X14" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="Y14" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="C16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="D16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="E16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="F16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="G16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="H16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="I16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="J16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="K16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="L16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="M16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="N16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="O16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="P16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="R16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="S16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="T16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="U16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="V16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="W16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="X16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.15462277809105</v>
+        <v>70.15462277809102</v>
       </c>
     </row>
     <row r="17">
@@ -28863,7 +28863,7 @@
         <v>70.15462277809104</v>
       </c>
       <c r="W20" t="n">
-        <v>70.15462277809041</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="X20" t="n">
         <v>70.15462277809104</v>
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="C23" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="D23" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809058</v>
       </c>
       <c r="E23" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="F23" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="G23" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="H23" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="I23" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="T23" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="U23" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="V23" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="W23" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="X23" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="Y23" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="C25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="D25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="E25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="F25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="G25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="H25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="I25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="J25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="K25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="L25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="M25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="N25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="O25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="P25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="R25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="S25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="T25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="U25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="V25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="W25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="X25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
       <c r="Y25" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809104</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="C26" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="D26" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="E26" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="F26" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="G26" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="H26" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="I26" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="T26" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="U26" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="V26" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="W26" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="X26" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="Y26" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="C28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="D28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="E28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="F28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="G28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="H28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="I28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="J28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="K28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="L28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="M28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="N28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="O28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="P28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="R28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="S28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="T28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="U28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="V28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="W28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="X28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="Y28" t="n">
-        <v>70.154622778091</v>
+        <v>70.15462277809098</v>
       </c>
     </row>
     <row r="29">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="C32" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="D32" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="E32" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="F32" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="G32" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="H32" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="I32" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="T32" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="U32" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="V32" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="W32" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="X32" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="Y32" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="C34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="D34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="E34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="F34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="G34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="H34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="I34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="J34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="K34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="L34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="M34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="N34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="O34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="P34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="R34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="S34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="T34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="U34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="V34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="W34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="X34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="Y34" t="n">
-        <v>70.15462277809097</v>
+        <v>70.15462277809098</v>
       </c>
     </row>
     <row r="35">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="C38" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="D38" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="E38" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="F38" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809058</v>
       </c>
       <c r="G38" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="H38" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="I38" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="T38" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="U38" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="V38" t="n">
-        <v>70.15462277808996</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="W38" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="X38" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="Y38" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="C40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="D40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="E40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="F40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="G40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="H40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="I40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="J40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="K40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="L40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="M40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="N40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="O40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="P40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="R40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="S40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="T40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="U40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="V40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="W40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="X40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
       <c r="Y40" t="n">
-        <v>70.15462277809102</v>
+        <v>70.15462277809098</v>
       </c>
     </row>
     <row r="41">
@@ -34704,10 +34704,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>44.13217237922859</v>
@@ -34716,7 +34716,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>42.34905430330018</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>42.34905430330019</v>
       </c>
       <c r="Q3" t="n">
         <v>44.13217237922859</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>42.34905430330016</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
+        <v>42.34905430330018</v>
+      </c>
+      <c r="N6" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>44.13217237922859</v>
@@ -35178,7 +35178,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
         <v>44.13217237922859</v>
@@ -35187,7 +35187,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>42.34905430330018</v>
+      </c>
+      <c r="N9" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>125.7837522271065</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>342.8843086275244</v>
@@ -35497,19 +35497,19 @@
         <v>523.0749102155353</v>
       </c>
       <c r="M12" t="n">
-        <v>662.9080126550489</v>
+        <v>197.2029489050489</v>
       </c>
       <c r="N12" t="n">
-        <v>616.6838981260496</v>
+        <v>285.7703384506402</v>
       </c>
       <c r="O12" t="n">
-        <v>176.0468801430563</v>
+        <v>569.9091994197859</v>
       </c>
       <c r="P12" t="n">
-        <v>121.7647921412324</v>
+        <v>440.2275607811696</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.97310817464952</v>
+        <v>241.0503959104986</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>56.17651396375251</v>
+        <v>56.17651396375248</v>
       </c>
       <c r="K13" t="n">
         <v>178.3326160034916</v>
@@ -35576,19 +35576,19 @@
         <v>264.6725174068493</v>
       </c>
       <c r="M13" t="n">
-        <v>285.7405329746172</v>
+        <v>285.7405329746171</v>
       </c>
       <c r="N13" t="n">
         <v>286.1038934255713</v>
       </c>
       <c r="O13" t="n">
-        <v>253.440650346071</v>
+        <v>253.4406503460709</v>
       </c>
       <c r="P13" t="n">
         <v>203.2292181245397</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.01071605279512</v>
+        <v>78.01071605279509</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>260.311834402284</v>
       </c>
       <c r="R14" t="n">
-        <v>7.363848708692244</v>
+        <v>7.363848708692302</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>68.79382750017987</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>342.8843086275244</v>
+        <v>78.41907161494578</v>
       </c>
       <c r="L15" t="n">
-        <v>523.0749102155353</v>
+        <v>152.2345649120761</v>
       </c>
       <c r="M15" t="n">
-        <v>197.2029489050489</v>
+        <v>662.9080126550489</v>
       </c>
       <c r="N15" t="n">
-        <v>216.9765109504604</v>
+        <v>696.3188852940139</v>
       </c>
       <c r="O15" t="n">
         <v>569.9091994197859</v>
       </c>
       <c r="P15" t="n">
-        <v>440.2275607811696</v>
+        <v>199.2795325038335</v>
       </c>
       <c r="Q15" t="n">
         <v>241.0503959104986</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.17651396375251</v>
+        <v>56.17651396375248</v>
       </c>
       <c r="K16" t="n">
         <v>178.3326160034916</v>
@@ -35813,19 +35813,19 @@
         <v>264.6725174068493</v>
       </c>
       <c r="M16" t="n">
-        <v>285.7405329746172</v>
+        <v>285.7405329746171</v>
       </c>
       <c r="N16" t="n">
         <v>286.1038934255713</v>
       </c>
       <c r="O16" t="n">
-        <v>253.440650346071</v>
+        <v>253.4406503460709</v>
       </c>
       <c r="P16" t="n">
         <v>203.2292181245397</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.01071605279512</v>
+        <v>78.01071605279509</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35901,13 +35901,13 @@
         <v>572.4397528131966</v>
       </c>
       <c r="P17" t="n">
-        <v>450.5091529344801</v>
+        <v>450.5091529344802</v>
       </c>
       <c r="Q17" t="n">
         <v>260.311834402284</v>
       </c>
       <c r="R17" t="n">
-        <v>7.363848708692244</v>
+        <v>7.363848708692302</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>260.311834402284</v>
       </c>
       <c r="R20" t="n">
-        <v>7.363848708692302</v>
+        <v>7.363848708692244</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>260.311834402284</v>
       </c>
       <c r="R23" t="n">
-        <v>7.363848708692302</v>
+        <v>7.363848708692244</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>125.7837522271065</v>
       </c>
       <c r="K24" t="n">
-        <v>78.41907161494578</v>
+        <v>342.8843086275244</v>
       </c>
       <c r="L24" t="n">
-        <v>523.0749102155353</v>
+        <v>152.2345649120761</v>
       </c>
       <c r="M24" t="n">
         <v>662.9080126550489</v>
@@ -36451,13 +36451,13 @@
         <v>696.3188852940139</v>
       </c>
       <c r="O24" t="n">
-        <v>486.6608822147775</v>
+        <v>176.0468801430563</v>
       </c>
       <c r="P24" t="n">
-        <v>121.7647921412324</v>
+        <v>202.892862540878</v>
       </c>
       <c r="Q24" t="n">
-        <v>30.97310817464952</v>
+        <v>241.0503959104986</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>56.17651396375246</v>
+        <v>56.1765139637525</v>
       </c>
       <c r="K25" t="n">
         <v>178.3326160034916</v>
       </c>
       <c r="L25" t="n">
-        <v>264.6725174068492</v>
+        <v>264.6725174068493</v>
       </c>
       <c r="M25" t="n">
-        <v>285.7405329746171</v>
+        <v>285.7405329746172</v>
       </c>
       <c r="N25" t="n">
-        <v>286.1038934255712</v>
+        <v>286.1038934255713</v>
       </c>
       <c r="O25" t="n">
-        <v>253.4406503460709</v>
+        <v>253.440650346071</v>
       </c>
       <c r="P25" t="n">
-        <v>203.2292181245396</v>
+        <v>203.2292181245397</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.01071605279506</v>
+        <v>78.0107160527951</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>125.7837522271065</v>
       </c>
       <c r="K27" t="n">
-        <v>78.41907161494578</v>
+        <v>342.8843086275244</v>
       </c>
       <c r="L27" t="n">
-        <v>523.0749102155353</v>
+        <v>152.2345649120761</v>
       </c>
       <c r="M27" t="n">
         <v>662.9080126550489</v>
@@ -36688,13 +36688,13 @@
         <v>696.3188852940139</v>
       </c>
       <c r="O27" t="n">
-        <v>486.6608822147775</v>
+        <v>176.0468801430563</v>
       </c>
       <c r="P27" t="n">
-        <v>121.7647921412324</v>
+        <v>202.892862540878</v>
       </c>
       <c r="Q27" t="n">
-        <v>30.97310817464952</v>
+        <v>241.0503959104986</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>56.17651396375246</v>
+        <v>56.17651396375244</v>
       </c>
       <c r="K28" t="n">
         <v>178.3326160034916</v>
@@ -36773,7 +36773,7 @@
         <v>203.2292181245396</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.01071605279506</v>
+        <v>78.01071605279505</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>125.7837522271065</v>
+        <v>68.79382750017987</v>
       </c>
       <c r="K30" t="n">
         <v>342.8843086275244</v>
@@ -36925,7 +36925,7 @@
         <v>216.9765109504604</v>
       </c>
       <c r="O30" t="n">
-        <v>512.9192746928596</v>
+        <v>569.9091994197859</v>
       </c>
       <c r="P30" t="n">
         <v>440.2275607811696</v>
@@ -37077,7 +37077,7 @@
         <v>576.8967518554707</v>
       </c>
       <c r="M32" t="n">
-        <v>658.6830808996165</v>
+        <v>658.6830808996169</v>
       </c>
       <c r="N32" t="n">
         <v>654.5614662797107</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>125.7837522271065</v>
+        <v>68.79382750018031</v>
       </c>
       <c r="K33" t="n">
         <v>342.8843086275244</v>
@@ -37162,7 +37162,7 @@
         <v>216.9765109504604</v>
       </c>
       <c r="O33" t="n">
-        <v>512.9192746928596</v>
+        <v>569.9091994197859</v>
       </c>
       <c r="P33" t="n">
         <v>440.2275607811696</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>56.17651396375243</v>
+        <v>56.17651396375244</v>
       </c>
       <c r="K34" t="n">
         <v>178.3326160034916</v>
@@ -37247,7 +37247,7 @@
         <v>203.2292181245396</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.01071605279503</v>
+        <v>78.01071605279505</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37323,13 +37323,13 @@
         <v>572.4397528131966</v>
       </c>
       <c r="P35" t="n">
-        <v>450.5091529344812</v>
+        <v>450.5091529344801</v>
       </c>
       <c r="Q35" t="n">
         <v>260.311834402284</v>
       </c>
       <c r="R35" t="n">
-        <v>7.363848708692302</v>
+        <v>7.363848708693621</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>342.8843086275244</v>
       </c>
       <c r="L36" t="n">
-        <v>152.2345649120761</v>
+        <v>523.0749102155353</v>
       </c>
       <c r="M36" t="n">
-        <v>635.6506021506069</v>
+        <v>197.2029489050489</v>
       </c>
       <c r="N36" t="n">
-        <v>696.3188852940139</v>
+        <v>216.9765109504604</v>
       </c>
       <c r="O36" t="n">
-        <v>176.0468801430563</v>
+        <v>512.9192746928596</v>
       </c>
       <c r="P36" t="n">
         <v>440.2275607811696</v>
       </c>
       <c r="Q36" t="n">
-        <v>30.97310817464952</v>
+        <v>241.0503959104986</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>260.311834402284</v>
       </c>
       <c r="R38" t="n">
-        <v>7.363848708692302</v>
+        <v>7.363848708693162</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>342.8843086275244</v>
       </c>
       <c r="L39" t="n">
-        <v>233.3626353117222</v>
+        <v>523.0749102155353</v>
       </c>
       <c r="M39" t="n">
-        <v>662.9080126550489</v>
+        <v>197.2029489050489</v>
       </c>
       <c r="N39" t="n">
-        <v>696.3188852940139</v>
+        <v>216.9765109504604</v>
       </c>
       <c r="O39" t="n">
-        <v>176.0468801430563</v>
+        <v>512.9192746928596</v>
       </c>
       <c r="P39" t="n">
-        <v>121.7647921412324</v>
+        <v>440.2275607811696</v>
       </c>
       <c r="Q39" t="n">
         <v>241.0503959104986</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>56.17651396375248</v>
+        <v>56.17651396375244</v>
       </c>
       <c r="K40" t="n">
         <v>178.3326160034916</v>
       </c>
       <c r="L40" t="n">
-        <v>264.6725174068493</v>
+        <v>264.6725174068492</v>
       </c>
       <c r="M40" t="n">
         <v>285.7405329746171</v>
       </c>
       <c r="N40" t="n">
-        <v>286.1038934255713</v>
+        <v>286.1038934255712</v>
       </c>
       <c r="O40" t="n">
         <v>253.4406503460709</v>
       </c>
       <c r="P40" t="n">
-        <v>203.2292181245397</v>
+        <v>203.2292181245396</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.01071605279509</v>
+        <v>78.01071605279505</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>260.311834402284</v>
       </c>
       <c r="R41" t="n">
-        <v>7.363848708693162</v>
+        <v>7.363848708692302</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>68.7938275001803</v>
       </c>
       <c r="K42" t="n">
-        <v>142.4130495200002</v>
+        <v>342.8843086275244</v>
       </c>
       <c r="L42" t="n">
         <v>523.0749102155353</v>
@@ -37870,7 +37870,7 @@
         <v>197.2029489050489</v>
       </c>
       <c r="N42" t="n">
-        <v>696.3188852940139</v>
+        <v>216.9765109504604</v>
       </c>
       <c r="O42" t="n">
         <v>569.9091994197859</v>
@@ -37879,7 +37879,7 @@
         <v>440.2275607811696</v>
       </c>
       <c r="Q42" t="n">
-        <v>30.97310817464952</v>
+        <v>241.0503959104986</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>260.311834402284</v>
       </c>
       <c r="R44" t="n">
-        <v>7.363848708692302</v>
+        <v>7.363848708693162</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>68.7938275001803</v>
+        <v>77.51474036260178</v>
       </c>
       <c r="K45" t="n">
-        <v>342.8843086275244</v>
+        <v>78.41907161494578</v>
       </c>
       <c r="L45" t="n">
-        <v>523.0749102155353</v>
+        <v>152.2345649120761</v>
       </c>
       <c r="M45" t="n">
-        <v>197.2029489050489</v>
+        <v>662.9080126550489</v>
       </c>
       <c r="N45" t="n">
-        <v>216.9765109504604</v>
+        <v>696.3188852940139</v>
       </c>
       <c r="O45" t="n">
         <v>569.9091994197859</v>
       </c>
       <c r="P45" t="n">
-        <v>440.2275607811696</v>
+        <v>121.7647921412324</v>
       </c>
       <c r="Q45" t="n">
         <v>241.0503959104986</v>
